--- a/Compiled_Results.xlsx
+++ b/Compiled_Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5600" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-44000" yWindow="-18980" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="4" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>6259685222800322711619182247142210069562580937690422560416664375511245182019089988816218893943603970959537419863161454321217501389662821807565207694995485141934757010120588290244030146628626779307470903730598390908513207033632964646798378979610823087762485593933830520941519016270064432225836381485794785166483739877753992501627867996661288088204435971478737944044252898624005304508882808228745821486143285220272358145415344908085031308944252046807646858645264596453349460413869984542663299628799062678195810382952743058000019827561764640480043836127288823265157803877787439594040486826581333156598472721871965296835382696425125520570526239033941508557341104992686837257013446689083189951175335992118743492265047420640095719339313257107311658055174903162130411277374371315318470530235108790735807848200147230229643252552389342881903953928210142105146485470339590162259275289400465528127601376247061620241390700941024354396322908546015630164665254314415080452440212350073734959906322079759195800358766141047909238996760772468007371781139351590800630188110202639488829174826280445135344813331020499258553209938745234151724404461729890772041945201995434896408324398859909536136095115634787889177088650774239801102584753346829842507941748614933172983521998012166816874241957208549961544080549821722556635284319745195821502774242866955366707109912521874893865184256772415224683604373109716793503300586600081866510324795030780933641061297563496931514517315091074470832010839623194122808397688280793488200954898224007673209206913346208085135511538788549104405695999616738899444886315122480077178507226695121133458739772371999084532218484728170551018021842757619303479684303968906945955464573066832716129526538019063700500928371026280274275467232860526134982417413594732603338866278362814379330234306965740849727208830086096438851753929580909997963867782877411422651840201696131984140967347978786655479664221074993029211259022390071402512285251754630282828492556217808916080542544947082350815690422068491927479775774419558682803962560188507300921339902585118786560123819087986762325167554853232351531595299118532523669368599404566996642003539726675422049228709605689826095204999914804465977336636727740901286058372303443480975512200288267098322275852748333392827906875243840074683234384968250220352943952441880553664694473074597107095594571886034953824406205556005307361444760172102822547423423657368548834561533000027121853527716872216468674620806780435015755872032368674141853629261440311903706685965104663125572943927938675647067485079468294545577466654692048409196342428936623864609738946775983423175187844247361191657944181008561423926486226292182694912022435266522027476493084304817612041092383010914514352819378918713629247251976503014037476702340608749931644740105361184018401696824511094370118314013084274468629387173474540394626381010510640415654473174764167623503748177603824102841754485701922765233899497510167979895606025060079065461241525924430286945749665904918897062400820701202151317320458957440279222656297840765213597242931425287546681692107907115129601566988625095246663311187921196392073839123218678700144384190489075416412022558842111382380042521212237329448231382834428860709753739039167617413564360252209097468865404390806917288622086369526331351407316929008325087863849845554468218435656699249877570118951444288871985342535379251299695211276416906556715091519873379850172762927907019322722312416216268389614515376470004610816836712864580861249427332540317197475457588314056226409589001572211424718802731784630074700100714473238415842477303321289332552384016372338914889686926719596130620654765435280983964478860136487126007426384762656670816405308732426425677200018842983497994453101895305328808939377984336938838602701475573126960354721447879123044299208580670733552907062470425232293432646513963499615085810300232407055318527130806247259309802576790443901898692060127572042891305861817452119795841414285620669087758053798748313259474870892330827985605980532200255852356103402280205236575335124487150238096108862884225563907520805544881365611760143256328076706395352829183156744991322263651870285662541733756286680366362547803882255043754501250686929189406108816284678651728782215621333278482123014270188104473949750661487114724397219823082484751054987657403883224129038963946081691899284940499186511308865637130123791916719647383420112458006464439184293364520407305869616248075534381443867134880124894622476432524415043069035303642166347688005150589215784818353222080638753626275241577152701986965494900895150687084713746411781998186277342588877288010136253701245219915822052054563796728655127822571798697645111567384854216161628271955077919850550982565524701619772962851751578588653573636816029092274786994956316625465343650690518160827483541838100767283179696683060024897897532463101839376369287242371301684010085319976610154615138676336745276894511276828788502355628345724248704169422104626863615068853363423955109382497453808165636614428825574739182033831528931252861123222388699142744676543010049308500911336116432851590437599746945670975148989950491694400605923974323698930768684135137074743595371713282845039164197474634760651091344634156890511966168094701065002226025237371264099291248864516788406865389076405118939549315758724365854139180413664053150668563850470467803932580056266490648794097863827107311858413096086143359083915055319476901690784517607912704968871107519311507566055599187705721186990746730151814315151698955286272998263048335284981023032888760921651658039998433709256298011187261895536610733855576552811073374718287052774718644053501935578814699974132306219305114080009339669330830409882556875211656210922812831404883229044057715226505377381330151706293991594474197865853132938887874315153670193956415391832349386169317570174564793067136206831529011871568735827127760043417196781222093217221051967113997315794108247105726265705241089573994747743255664932116448381736221235108492959937107405928502381539317074505653048611176017012812623770058721412352919965973763740981601053958758634899013365221582297059255768466965768472578079444425600675247112905293299533531565077626103900372377297233156996582779901029662242070343356248262202134896335598321772995729699326308199679985243918418961195076244898069466249189421209337399961316884922147403769207710032158258129904802072883794487256483602294126330530365961609263917000127144731738497849778604718386987775542511040371310286910663117568939377164265858602122060016406523524612158107148038680598511762573142957691978625737740451809698790445763502007060069985812626524353415012157975086835963099110886735905479595327444916233321731842708375242115906176722143436665919928702513499667343355589293489233498175890818552750372826102248087525388362416953663410968443370517236781786316859704294435173744405288432120653573179743983474241774014808833782890791242284958730219579617268683307424384412878859736787578604659069077545047019112027330541557085124096294617484253723689341181126618187153958223489372404854887733050032634793183689236107944589905308505263878597100390196131312255181024530226597491449808317398816290113723392691964857923494439677476635323778744980690447158190140329037517674787499923035080518727611362833549554716337907588382895878547045634832390338214468674315579737273221921654735611880657729963766877837618548047958407201852310957586221163423112496365235675655667740859673209397994725242525556042671204520067292623644013228830573998083698856289555532790025317381575901087474930103450027274717343667033291535180252637756920405641320847572086974711909026800832941990192769447164473839278864916978789452954690035639720898574153256867306737185459326421150389003738293381402909691816621540058062184899546623652358842529063174846228262483978625793395714912814467252590063242134425437671541534487993026833054165614524628007098523801132815088671665708122973181642833659586366277989000387107327627203970135830364129684954984693223094683614511265378500449535812497459057947328648527850292713163243068991702255081485883841299377744547934284954367554455693278440384493958777345731971182515918855488540473726902122226135391645726254605683424155873733533141791830898302370817996737997389581426617523825067666892840259465001747999249802219051629327440287171697210279448874080253008521120137564116820139497775271476966688098105014691151438826668786844400215634299938240379230411665939885065960077812683092575828713084504822563436500127321975730692616711152839432571877041256354999993103067982907661040908419750053588481129235979939900836114428740049134800684561325563339956745465304252085387031526446165103444186707076505514199538245335455528925215627458207328552222106756780632111815999653377748919104531121419015310617724258579555497852349286930066799825680152036337139263414089792157641820904151941875107759428677486478291601278226462671543735409788084647075430932693050511914866921467747821085693365964279255816611714957729399334787499618379427025471881581643910642771878398723455181560437349297226824439152514186951288851933944957708774354293335372289433246667520982002018206129925696055066948284902585231213641213517515531817333864376992723681478999466372624123822207587068912953371054363746999061079285905733549733506474728136017103361882630186218289541651150551501004558087588158827635777503795439354755321359888458322844292793374840842814359742636981401134490371459290766356153608655688705230577180425169242352042588783096873997072787749086003592389212602153210598181349452025576210840895792811989861544991371142741922533270314605615884829436892956713646027750700272784733561846710523706424294027782659203750988883610673683352775649169965952261349761229047177698914079034656828820086884375037911934985771186280998057310064085061447292040837087636369525844437415086642751264408800490802326680255782581988137986404564026675497505485996806227968723059346465748996588129616963271257298305090109897594205980519331012401323328512307216161878128184557972053841972577737735755381033939131168747440037125011294853422984229170511669541409422594555233380808588033744332510247660688439501882054975952211279539704038734322654058587446824631776120983092535388507304113443973091986217888513172008286351913909156601582920332814795150110618206365156549602974466088364737568166393289918519830543019601949614272868831553643612977176663545751047358078699940982360310146159639438961354988075551190413307757173961225170896938832470128627862471044094785763865711804073814070418491576482682173901531071106680528053214295689081240869668287008142888476786434292856966821595769226939791139313459193801976298606786728457121889054269929118083048198039409836102037795550110314479810614168480862871280260547243723207753927807319195286173749568415264383947757719231828542847515364960273076135590101233053012913018258353876508294423287230531520445763075085038659799940460857617550978932075022789109910565371489102501725735733337612262615744374225155764982674635235419001990430007858080943100225452542710127270110142892504755108559254426441239236311818070504098376870849967480148205515630775698755435251606207038751215279253963101582347400585965424907214019997611952507625105021834208715301831428668568385122084665681308937774039236903040628190410618651099733620974818064548863908050187074681741526459823381869415505094164462713803265654190869938208993763983978155687901695365591259482645009264114945962934466322056399665986544165719858565572910511446493138539680669967291140245849935369684308589514289654807602585483229855501784376380211464368270933068016289325016410910647931533656153282802738478052750052351373766003002805055467324366725415033008733063361926487413394788062074494993170160965324765294809775256854615140493929005050348618755080429129713279264034617265025412747634577980147903319703093103697239720224979842067563750969218557132892645077836038039334551634113167314352703170710777076857811630696118178732224063187139136871437315349188983185269857973186901064862266679648238721045993783370925245927767612883246724452474895052603986773338940528931735636972293813305848793625317818892467783608984807660409880680792377856047229707109992303682888171238084614804754162387396979087931449736576389197858683303509986982977504769726260473080732303216761012581503869134634728193193891566383494704778221039113180905548429293777477477022064299504271396980935101651437523701069083080967580561786706405457122834291908994443851732287074212422978154779826968898878215329237366391907983439813780869966634248030785714352136162736880197247015907846053313386061231890238543014444889324764265319277870088042245056775100823134589119414760575886747295949067651141792557528494092749789807446672542792014317546437407679120021582636108605542490804326149830861573432014019799305692216444248009080958631633895536058884500757402715608424760778264182681000567490041471674979011008830719198370190013736631090998625727282068487247544415574634705524849766814561994089108449819052502877959409412269499549724627211010611980806097809883182788467093295273360003096338392670996123538012656472284333677154590212647835688655738595546725651121456015105141539181463027659275385059674946941031275170778932612690058041939766359473391922517769602966920483298943209029994664642162519866696780976669304637644535739372049115302242750625623471951369722199172635009458532136207154449968140646743272556002364244099712663989096673186730207467188182224552091839013714524149898859892773938227347740652300120159515006758891086728737515408073679088562662064947081848312846897694846824341303551264155663397453740271736520539423060809521542291604115111249443626720454373171155746538213164616659872816107988834385529248793371657951632912232082997214675627153719903664685014341986851138247158113325386072555858621858632029107076174108131901108447352242978898041320260636168707233990156469792911028148866144111318389072856070596000795723733413671680790573071155642585258240648097941758908180878325248766834998042316300848942773240759863856568346916381362414183425763148062470205991980920830534694782373685539183348539250289534461378816349758975626808009339526885158971851240120285949911022537058328077162644092461910624342995910977874118937807698628487331042211525801288513612720874122126803296156026875678108404494683473447615832401507276282293876290859558034570725059238098851295487548435851937814179807923876396197838211168600614435626349724540820956449916128446007519600777814603951233345073818466083511980199239014657991629474934604097398171627816171150158721445956039977493100524999332921697900248317660843138646244263770242212975648430966537224076814037567991415809421926959067114344216270353855467237047799986594161618548802691748074829620014263868669872756313391792126033153645408180202626532321719772713563260573493662699071061797320915197474277255198929681452417490494418686768843591675680865276759490317051319846995617943843153980595339168532107029124356530469178433899207097481412192572756103293426794298528884972974531277264530108631993275203391208015200108471241899737463526132522624515352806998961773088261236401371209849917154922245531597568367806962815094251930125771861206401851021837127562532767970730511564567810028346822678091409025758475781279572302444924536864527667841877361500067491088733284907832818980475704314728121006367731585253707427466584194110505585231759071063562123249200792221154198057350179069491982377518224844198481609024070165461912012074133549048053373674008270379821230528887352418500260464418442421323410185381331479101903712297061556576547455094794283931131161265591073492553018824132266406625099731067215144102318949753810835809666279060629235668028634361309362652227358779614026583494948484232934012789262753110594953801122433223217210058762721077291340964931873179126760709356586454647116561229689532064236850720181959995110056392080289665241944204143254008426726611862003734841526658206084752139611726304949162015004440931508847849112727072629253386367800181201389265143465691731042423905590946509974327406441323681596378534991325406124065409993966169691832121858522596601527653696797961637054987410799508962906454403597523984223070020422196288291589676278106582429225468344024983915036775416859503071587722458930648559360791663520092599445086896649059923840240410145882078401735359612664519917556462566521024834465855235776875562534306355594071300860055512815515455392170504270370639801398329477617108941954935822221322872798493911445339315502929331345883530773704433520594231232201084347384050822302439496357681676865751868653654985977624927375206673165189670151221452128197733592774997832681560537307102355439177195466083822210315964277474153784108781110607031319895026094386729011976302222745286393357025818748036398430057692684636670282950371863645922952993190001553563528012645131622368392737866361727347905338281970035686433184454633707010302142929470693282266125238044451613718225854870015504937439041487008950750225573177893955150108406289437257351738053507547649888779592422018211337119023231244714222892744846128671241393370108275510811226351180058385975596136578006750295168716531366101833098242028542012693703429569587725743731293511033739714515807749962518256140489719476191023066453895074068057751414952008226900011778868681433424196526172447925170006618303561938123185807654714823440078353321476694732972973063591060034953019504524496003397507958258992286196365751839810400486525862245005068990782823232845188328138078748331146904046938529719158913613610581508853771712331605191823600918411205656478476777035910050912877655063994805515338958388827033029302830058682349379206958501606693268234913834873773996933488433505585422622085566838199513905653266487551804435691012808884647884285635560289927587216084188937003696384366742405265710311735749394387632410304821415321818316307328099361348888261145336207441331082676051312417972844517617261528942689512079616261805544912533780425492018698620502121364354378440285729352040974413856334919024773634522532500170999842008800322450169899404942596796115399231085033743040798866201686427430549906610294411969954614518858605466217302367866513583164857371898738406088107278741825986509310190580830313896667109972092316311169958705009273274878581042952082421005571494278888450965093149061336112552883975338245915624360062197464879064101261157386118072163043940106191047633012807049579516911305857355425215775644241105155769858154526735861663225081765094003831583815192822110676543748620026778856439529273468527150276376092607142020968983144321666704693329660030165000215451129230415824128563662059609170009885468016569643267283207034296267216680150949137293388979352193434253704340312778123034067669631429852608690620883462880169875320058205370831750320105284582114170329957310242935745488739682793757144800944789755744376054787166933548538679467906137625631455778116192552622966233126433028484694792282548309064909950077732271032175975987501592127454877227923423712818118969623905360310295229631130010126869375248225130878342671103084297877966890556234600796731450188755977808163121002775109134099876943133987001643175723196806393948046260397718414208155804610832015027233263714549276892978728276887451381713224350784670051588588117238053795209296294695630577916221062401889877072723278858026753187602450190205596671559905448979724115955146910414192792393626692434057730217373843323736825285419145379613686417758356902257281950946958928446818503448999311584722144548000601879919258539310807288344820354507423002381904035391638520539874126529834340477954621854266986407748928312906104221779911326391787681659208311570118309287112013773780763395095371040933526705701621689219109352903632945411945186033638981140636419586291963122198937311251728952312654699514571617122078706166385941161382380214772553798334361396296867082329018384181452872278140330183972309048428057462760768284651726797167324122117323865658379332660252879665091027543401658784301472064494855521011822049874511778244465335889118504531794693993991838896293148380821051178706257913132833843903978993586660660115096751820600405227138492043352822030913468900475205935276202178538255602562066369801561257379510989174667365254491300175424516700176214868545357199360213197916404797157732875718607001521315303452602820840595024310413029052481615188988872423219006504010805427896337269920610254105108753760767261318858288761053618535590956811135530311812220087839939383158622513715138629907139241359873965974318177792107881676762264531603706967475687091293026808438060635296402499188753369362650124661368873352189046154731310906958123884647076748962551403015953046861567160599449182575320442999492684877193563688523607489782651399187086481170816554797134818810735201474719245995692036957513728792567239792816588212632132168607318559588154172590004594702784151019771302942868507943370671415361751345802263192707186266074075654551467816484205989345473775384196318544899199556796949840542056155864762285332276988266843101674599753920286983353223812071502564389491845219605425723876352620135603430903676267222654639741934167937604228430750089059457980147067396676642921447168201840497021933313838139199153707941915043920757903036338366678250571370293407925276762610380347250715620570511229418572362654958044255173579588710214065802448516974894505036130614697180318281375451197679491681952348617644245210173160598793467288728301831614162293727273462438552401461215054131800953529245059096414936842533907513125638811456960057404013621628116436952330706644491383694928924951947039946284415236470062615494837910877523666854690998594449659286166446012510456639066326918951790868549820734551724181591061945889606048876724381026605768311727465199099183526795696499886425015008028089074716140825766452480936404670413917770726783172667180467100502792361317148270423187944391406832618083019031070753631464532462951398423570635682293543604155369754659416555289033559874310354682016308185117398883771792493797996725447411914014651777813743582049351093468292412517755666150111185737224431324570327932241671024887230674729566235361775606542024097919020351007494432600986939060795519821353832872905933878832088879546760257555607467601736162590060521258789971656029695864497253063437364076013663549621858181289245417246456198384745776346147313875658270345048835596368904995670529582434868623548792136612282119710026747208697368421217712974522645369731587567957330945352015044722234460893681573494465824141775125835431765092033387742014844218094079852850064666847711358935320969742316344840442872953991924575758409588982216100128416758587766228292216872859858352625505940641519229111427475186109590556862414050329449701183439266749179175515469368792762828005076896828050484240255465295428075634433678869507600218905230330720730039602908003496531572581419867646506059872990016112283233171650735662541550597845775077744968716498995155164187136860554030186063016090611386162291185156699570758623857777043348253763297441225505788331562679607187111367656954856781631324241700428388406808602649317024104289114417340521980844191460005487922646658336608633828099449434410771137278267612114024034432923379023043557551191492887575971472020974150831331535496621970695199936491129780942876051923500888358240290467573270516021015304631602656777542790635015885127534746631073989787184841845687116321600730238372018404532588957882295559386573350101701798237900180803143618188945453883994543049656846644592458234019540207409042762033507682952727633915033208527519426856594000035306511840573048424978620319677166646343769655346584968996272400532312896930507026038122263322386399103385351695136240020818755869608556524546568119212223881250498328105163541566297009176127076158327367370789357939534385123894725934488694675283751998735971411771295821858883924653978710993550436110050202759838812325287322232656084135314595393334433683420044371752700033758503458711654428527833381744492413406279973293143333245171966306352552831081089062824465790152018482298383776290097126370277653612171062841744289202111528204128278443246478173085084796711745790276080153195386930956190748057874089863611922317028677607418421157298836260092576671732371995234925736208886282947062867149017300632716302002543433476546953123881120112368317805235586205400778947447959323021759827763521362364959345154506752472208828085592666646505590892994356615640162706885656623399108476953006891511519347691298921127891712442376555278722618324707695893754525888214688866786125465449491969109834283520044953643084077737090509862867216191784004390839974429067568698159126273481272339091795124256875978031141986507003737524243402611349294377780716522055486790994211749944783027802017824538344473689492344994993755869067485067682701798365595496130517650835750430514642392294757090304460054593208333550279104159588044543427926917818049219785899437300719046526178152399819941687342005117137145155070532311267118113829985676829393303918187234697010737817626019133338130654244135043453420361218768054100563076335353480046038817674633373881240845398782972981116444526662573927519895175676975942938488108721626889952589725299740680228514774406523923871960410485534606154835845868130314287057844457806620301384897806756792882398979249652827491073910344893780065983358153519469147708984458057692204977307452137774035737516155818461089221003215695075639570180854750379035461277230876626175817575303401118751903771358208375644207454785240700278483036846170354559599560648942028064398176043427524869962927971594705143643699739885608385775141631822190183955997850766924701823422779683911099871844404070532902450549568173000817323624240796566886552889082249349224056548540911742369124055476186885572118443246599823650893014216663735506012062904401544057599307839334497541572341642772764244404854197289524501570046558251832429426607676298600664410831337183569893113334206009254637666815936183903653371985391884286695920201772740001028134310179108367109147057760932652241816299125212779156819615492242218073825786819920668403771119752673670843182072546440087924281354764628068230312952784664440520660412703830478356864158746020384578288719808633386190251258300395980654831913333752203386161354179638916435110019212802097910779469520519632532603511686625781725418665194450373870721719440963732690374641925558110195056240209092673649058335164150684323158179382340096486820835821258125690916996112574971671248257326261571010604438060553607282398385645605785031598923731721964490991053439919096772389139284197483334052134640552631251339954443036238739412223825141267975896901902343661331368247099466786542834358107014196333350040719227966878826646993874607282326262378516607272987996531919087622136413703132746034298123382552615512388638790998235115844271193375885429310873468864130678956647325613571679979907073033047149293923558535917802625716743050243165521512547495025812696724300150006616128196930199733617243697930569546661174796850190496187187936589869460723093458723613933030043790774907416878465572392830907973307383896052525070910998579487930149150224316945370144044919106524044570047750332606057549732052946840542361022945082857019747564021882408288073363164685291173819628967088416228242606803423495423202567322250827246435951023316340227257931505868824570981386394667834126935877527464724065338759509804383817886897266210746254294428326767652051730207831803314753271551950397478818901876992294798711116988765333056644713051487392785523422228412427023184890055505072446262530104003328659967664087920602191196605724078301950022516442636680265314671741909458739436031171898785792751928391773675280313474248953410241249536929854245299791931883473698372326229147197915129302223757796819631723837043859643824577418247360568429018543326675529107115552217433918350934349449480940984685250010048681495252642965974333854173727360905961702991372693197422814881623670209844535827214517231470346309398307371061346424425687789132311307893036601378400058231305008600012475220142454869880654508945885671935571383134118674481023736495589964862663946605682865394969936103414669613722222382499525415744293345487681459304694379880423059527773547355391636432605016212798775719526223601304856465770639014829165516951984612792952995387447840200138218537910407986154917594969047663637509388411148719003346459859213757387375810579765624932650730985201518290649653553720519404260236736523756507405160532427554733417275699125700496422820881955272677068828091205596618963806004606339271162193182947215048754031647410261361928066171377421941752987244051254732747188000530502458692671590354678848421840167324000769630711963831684635209364557581997012615720917889399179452421488468940393124352962583891823187616074492000150309656525624378929036687571799601865355573942494329261146848464754742914233449678595397732089808249209311607449012883404849945653863511130523018222698984018763120793804792215240234544613873338398322751519024440975334783203836389503184898220754290746539110896597222338191434567206580440451513267868894834954077848461856129279135519021847810519520045612430753117067201193352576535559727367683576319931422719053099988055828450687726873102154177322378166057497657730129131909443098471036546835543701660274215400554576843604485019595033867311608793951231383526949098491489622626555575760211456755883058348154432029041989723763963003462179504006662589875016219580307299047406719340678401552392143693354822150743739260196200550533742844607818050381077006495894096185664178494517748093593636963816145339619969046521253073024067012539334542798347428097660741570083471276906038079503299191252864361545061970477219969830595839773475471275740059741613351115017258454979684875035598995046616854182379000565723562483328851289041173812030028056406246777674274480423443114939810279349711387208551598390865921135233642891202169178190421028049244048454515954420071278058228579860247722300254415053825875643571653535127176459047544340482327295256297002867703600976622682277074160696924693210778639573067249488039782132944516617167414719946896682557184798643646900649821543004007553095843372004784880273746308883009859775747309484271394661867098738161786477563620656118127497368120006858097047478173190688615017136606786885057250416110869698271368890191938202609592909866559728324752885814571058714715465111092414494212796060882508928797352427919240134423951268856763064724370847371338811927050463823374089349696279752758977912440301619074918493576495934101002728890085269881263259155048626797126310905919614176691438669075520856182834888542910707636967600583457580790010905296366624200018884853230589794517203416335321752886310975976622473317330279449199285457152231040526695542117188026083553430093256513639889334482020870359854555225291124235948109966410958259511228676956424219780613727030347660420225155686173013467572204229606736937150072911384969664584236312737589080834438918705710121567347405084468900783626387721130553800168369483461860982529750272866146377285490747221071520854130226497985713015028282674258420729999381563953435443498181049195606843446707620766488905085342970609971852190391948571204744655339806093039958426900951788095063653724435117039178852301533824971733848972325257397285268408563517634269626337596934733022189765822700152705499675004487990505504911944056138526467645390827583295382810567669111698372713887632527607834651294237167867459084734888905331923314726221237877520317932219515827634200119275561334177333308560317864221103148810616835489800000</t>
   </si>
   <si>
-    <t>Dynamic Programming with BigInteger</t>
-  </si>
-  <si>
     <r>
       <t>c</t>
     </r>
@@ -229,6 +226,9 @@
   <si>
     <t>c</t>
   </si>
+  <si>
+    <t>Dynamic Programming with Big Integers</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -334,17 +334,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -384,6 +392,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,11 +1032,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2099339408"/>
-        <c:axId val="-2099446816"/>
+        <c:axId val="2092276160"/>
+        <c:axId val="2094370832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099339408"/>
+        <c:axId val="2092276160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099446816"/>
+        <c:crossAx val="2094370832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1129,7 +1144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099446816"/>
+        <c:axId val="2094370832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099339408"/>
+        <c:crossAx val="2092276160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2113,11 +2128,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2097507728"/>
-        <c:axId val="-2097599312"/>
+        <c:axId val="2092289776"/>
+        <c:axId val="2094493120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2097507728"/>
+        <c:axId val="2092289776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +2232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097599312"/>
+        <c:crossAx val="2094493120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2225,7 +2240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097599312"/>
+        <c:axId val="2094493120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +2347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097507728"/>
+        <c:crossAx val="2092289776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3554,11 +3569,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2098672000"/>
-        <c:axId val="-2082191808"/>
+        <c:axId val="2092372928"/>
+        <c:axId val="2092378976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098672000"/>
+        <c:axId val="2092372928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3658,7 +3673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082191808"/>
+        <c:crossAx val="2092378976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3666,7 +3681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082191808"/>
+        <c:axId val="2092378976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3773,7 +3788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098672000"/>
+        <c:crossAx val="2092372928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5898,7 +5913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -5911,1302 +5926,1356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="4"/>
-    <col min="8" max="8" width="11.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="12"/>
-    <col min="10" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="11"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="10" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="11" t="s">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="17"/>
+      <c r="H3" s="13">
         <f>MAX(F4:F53)</f>
         <v>2.9802322000000001E-8</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <f>MIN(F4:F53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="12">
         <f>H$3*E4</f>
         <v>5.9604644000000002E-8</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <f>I$3*E4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="12">
         <f t="shared" ref="H5:H53" si="0">H$3*E5</f>
         <v>1.19209288E-7</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f t="shared" ref="I5:I53" si="1">I$3*E5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>8</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="12">
         <f t="shared" si="0"/>
         <v>2.3841857600000001E-7</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>16</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
         <v>4.7683715200000002E-7</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <v>32</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="12">
         <f t="shared" si="0"/>
         <v>9.5367430400000004E-7</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>64</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="12">
         <f t="shared" si="0"/>
         <v>1.9073486080000001E-6</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>13</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>128</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="12">
         <f t="shared" si="0"/>
         <v>3.8146972160000002E-6</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>21</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>256</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="12">
         <f t="shared" si="0"/>
         <v>7.6293944320000003E-6</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>34</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <v>512</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="12">
         <f t="shared" si="0"/>
         <v>1.5258788864000001E-5</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>55</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>1024</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="12">
         <f t="shared" si="0"/>
         <v>3.0517577728000001E-5</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>89</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <v>2048</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
         <v>6.1035155456000002E-5</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>144</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
         <v>4096</v>
       </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="12">
         <f t="shared" si="0"/>
         <v>1.22070310912E-4</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>13</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>233</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <v>8192</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="12">
         <f t="shared" si="0"/>
         <v>2.4414062182400001E-4</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>377</v>
       </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
         <v>16384</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="12">
         <f t="shared" si="0"/>
         <v>4.8828124364800002E-4</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>610</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <v>32768</v>
       </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="12">
         <f t="shared" si="0"/>
         <v>9.7656248729600004E-4</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>987</v>
       </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>65536</v>
       </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="12">
         <f t="shared" si="0"/>
         <v>1.9531249745920001E-3</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>1597</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <v>131072</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="12">
         <f t="shared" si="0"/>
         <v>3.9062499491840002E-3</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>2584</v>
       </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <v>262144</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="12">
         <f t="shared" si="0"/>
         <v>7.8124998983680003E-3</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>19</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>4181</v>
       </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
         <v>524288</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="12">
         <f t="shared" si="0"/>
         <v>1.5624999796736001E-2</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>20</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>6765</v>
       </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <v>1048576</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="12">
         <f t="shared" si="0"/>
         <v>3.1249999593472001E-2</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>21</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>10946</v>
       </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
         <v>2097152</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="12">
         <f t="shared" si="0"/>
         <v>6.2499999186944002E-2</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>22</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>17711</v>
       </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
         <v>4194304</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13">
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="12">
         <f t="shared" si="0"/>
         <v>0.124999998373888</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>23</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>28657</v>
       </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
         <v>8388608</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="12">
         <f t="shared" si="0"/>
         <v>0.24999999674777601</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>46368</v>
       </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
         <v>16777216</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="12">
         <f t="shared" si="0"/>
         <v>0.49999999349555202</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>75025</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>33554432</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>2.9802322000000001E-8</v>
       </c>
-      <c r="H28" s="13">
+      <c r="G28" s="17"/>
+      <c r="H28" s="12">
         <f t="shared" si="0"/>
         <v>0.99999998699110404</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>26</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>121393</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>67108864</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>1.4901161000000001E-8</v>
       </c>
-      <c r="H29" s="13">
+      <c r="G29" s="17"/>
+      <c r="H29" s="12">
         <f t="shared" si="0"/>
         <v>1.9999999739822081</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>27</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>196418</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>134217728</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>7.4505806000000003E-9</v>
       </c>
-      <c r="H30" s="13">
+      <c r="G30" s="17"/>
+      <c r="H30" s="12">
         <f t="shared" si="0"/>
         <v>3.9999999479644162</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>28</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>317811</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>268435456</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>3.7252903000000002E-9</v>
       </c>
-      <c r="H31" s="13">
+      <c r="G31" s="17"/>
+      <c r="H31" s="12">
         <f t="shared" si="0"/>
         <v>7.9999998959288323</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>29</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>514229</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>3</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>536870912</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>5.5879354000000002E-9</v>
       </c>
-      <c r="H32" s="13">
+      <c r="G32" s="17"/>
+      <c r="H32" s="12">
         <f t="shared" si="0"/>
         <v>15.999999791857665</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>30</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>832040</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>4</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>1073741824</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>3.7252903000000002E-9</v>
       </c>
-      <c r="H33" s="13">
+      <c r="G33" s="17"/>
+      <c r="H33" s="12">
         <f t="shared" si="0"/>
         <v>31.999999583715329</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>31</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>1346269</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>7</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>2147483648</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>3.2596289999999999E-9</v>
       </c>
-      <c r="H34" s="13">
+      <c r="G34" s="17"/>
+      <c r="H34" s="12">
         <f t="shared" si="0"/>
         <v>63.999999167430659</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>32</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>2178309</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>11</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>4294967296</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>2.561137E-9</v>
       </c>
-      <c r="H35" s="13">
+      <c r="G35" s="17"/>
+      <c r="H35" s="12">
         <f t="shared" si="0"/>
         <v>127.99999833486132</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>33</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>3524578</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>18</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>8589934592</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>2.0954758000000002E-9</v>
       </c>
-      <c r="H36" s="13">
+      <c r="G36" s="17"/>
+      <c r="H36" s="12">
         <f t="shared" si="0"/>
         <v>255.99999666972263</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>34</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>5702887</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>29</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>17179869184</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>1.6880222E-9</v>
       </c>
-      <c r="H37" s="13">
+      <c r="G37" s="17"/>
+      <c r="H37" s="12">
         <f t="shared" si="0"/>
         <v>511.99999333944527</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>35</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>9227465</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>47</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>34359738368</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>1.36788E-9</v>
       </c>
-      <c r="H38" s="13">
+      <c r="G38" s="17"/>
+      <c r="H38" s="12">
         <f t="shared" si="0"/>
         <v>1023.9999866788905</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>36</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>14930352</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>77</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>68719476736</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>1.1204975E-9</v>
       </c>
-      <c r="H39" s="13">
+      <c r="G39" s="17"/>
+      <c r="H39" s="12">
         <f t="shared" si="0"/>
         <v>2047.9999733577811</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>37</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>24157817</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>122</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>137438953472</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>8.8766683000000004E-10</v>
       </c>
-      <c r="H40" s="13">
+      <c r="G40" s="17"/>
+      <c r="H40" s="12">
         <f t="shared" si="0"/>
         <v>4095.9999467155621</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>38</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>39088169</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>215</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>274877906944</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>7.8216543999999995E-10</v>
       </c>
-      <c r="H41" s="13">
+      <c r="G41" s="17"/>
+      <c r="H41" s="12">
         <f t="shared" si="0"/>
         <v>8191.9998934311243</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>39</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>63245986</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>321</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>549755813888</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>5.8389559999999996E-10</v>
       </c>
-      <c r="H42" s="13">
+      <c r="G42" s="17"/>
+      <c r="H42" s="12">
         <f t="shared" si="0"/>
         <v>16383.999786862249</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>40</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>102334155</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>518</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>1099511627776</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>4.7111826000000003E-10</v>
       </c>
-      <c r="H43" s="13">
+      <c r="G43" s="17"/>
+      <c r="H43" s="12">
         <f t="shared" si="0"/>
         <v>32767.999573724497</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>41</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>165580141</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>857</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>2199023255552</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>3.8971847999999997E-10</v>
       </c>
-      <c r="H44" s="13">
+      <c r="G44" s="17"/>
+      <c r="H44" s="12">
         <f t="shared" si="0"/>
         <v>65535.999147448994</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>42</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>267914296</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>1382</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>4398046511104</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>3.1423042000000002E-10</v>
       </c>
-      <c r="H45" s="13">
+      <c r="G45" s="17"/>
+      <c r="H45" s="12">
         <f t="shared" si="0"/>
         <v>131071.99829489799</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>43</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>433494437</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>2439</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>8796093022208</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>2.7728219999999998E-10</v>
       </c>
-      <c r="H46" s="13">
+      <c r="G46" s="17"/>
+      <c r="H46" s="12">
         <f t="shared" si="0"/>
         <v>262143.99658979598</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>44</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>701408733</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>3702</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>17592186044416</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>2.1043433999999999E-10</v>
       </c>
-      <c r="H47" s="13">
+      <c r="G47" s="17"/>
+      <c r="H47" s="12">
         <f t="shared" si="0"/>
         <v>524287.99317959195</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>45</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>1134903170</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>5615</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>35184372088832</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>1.5958789999999999E-10</v>
       </c>
-      <c r="H48" s="13">
+      <c r="G48" s="17"/>
+      <c r="H48" s="12">
         <f t="shared" si="0"/>
         <v>1048575.9863591839</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>46</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>1836311903</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>9326</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>70368744177664</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>1.3253043000000001E-10</v>
       </c>
-      <c r="H49" s="13">
+      <c r="G49" s="17"/>
+      <c r="H49" s="12">
         <f t="shared" si="0"/>
         <v>2097151.9727183678</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>47</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>2971215073</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>14534</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>140737488355328</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>1.0327028E-10</v>
       </c>
-      <c r="H50" s="13">
+      <c r="G50" s="17"/>
+      <c r="H50" s="12">
         <f t="shared" si="0"/>
         <v>4194303.9454367356</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>48</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>4807526976</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>23867</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>281474976710656</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>8.4792619999999999E-11</v>
       </c>
-      <c r="H51" s="13">
+      <c r="G51" s="17"/>
+      <c r="H51" s="12">
         <f t="shared" si="0"/>
         <v>8388607.8908734713</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>49</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>7778742049</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>38306</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>562949953421312</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>6.8045124999999997E-11</v>
       </c>
-      <c r="H52" s="13">
+      <c r="G52" s="17"/>
+      <c r="H52" s="12">
         <f t="shared" si="0"/>
         <v>16777215.781746943</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>50</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>12586269025</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>61877</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>1125899906842620</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>5.4957816000000003E-11</v>
       </c>
-      <c r="H53" s="13">
+      <c r="G53" s="17"/>
+      <c r="H53" s="12">
         <f t="shared" si="0"/>
         <v>33554431.563493766</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7219,8 +7288,9 @@
       <c r="R54"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7231,70 +7301,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="9" t="s">
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="16">
+      <c r="M3" s="18"/>
+      <c r="N3" s="15">
         <f>MAX(L4:L53)</f>
         <v>5.9236109999999996E-3</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <f>MIN(L4:L53)</f>
         <v>4.7619047E-4</v>
       </c>
@@ -7315,7 +7389,7 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="1">
         <v>3000</v>
       </c>
@@ -7331,11 +7405,12 @@
       <c r="L4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="N4" s="13">
+      <c r="M4" s="18"/>
+      <c r="N4" s="12">
         <f>N$3*K4</f>
         <v>17.770833</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
         <f>O$3*K4</f>
         <v>1.42857141</v>
       </c>
@@ -7356,7 +7431,7 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="1">
         <v>6000</v>
       </c>
@@ -7372,11 +7447,12 @@
       <c r="L5" s="2">
         <v>8.3333335000000002E-4</v>
       </c>
-      <c r="N5" s="13">
+      <c r="M5" s="18"/>
+      <c r="N5" s="12">
         <f t="shared" ref="N5:N53" si="0">N$3*K5</f>
         <v>35.541665999999999</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="12">
         <f t="shared" ref="O5:O53" si="1">O$3*K5</f>
         <v>2.85714282</v>
       </c>
@@ -7397,7 +7473,7 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="1">
         <v>9000</v>
       </c>
@@ -7413,11 +7489,12 @@
       <c r="L6" s="2">
         <v>5.5555557E-4</v>
       </c>
-      <c r="N6" s="13">
+      <c r="M6" s="18"/>
+      <c r="N6" s="12">
         <f t="shared" si="0"/>
         <v>53.312498999999995</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="12">
         <f t="shared" si="1"/>
         <v>4.28571423</v>
       </c>
@@ -7438,7 +7515,7 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="1">
         <v>12000</v>
       </c>
@@ -7454,11 +7531,12 @@
       <c r="L7" s="2">
         <v>6.6666665999999997E-4</v>
       </c>
-      <c r="N7" s="13">
+      <c r="M7" s="18"/>
+      <c r="N7" s="12">
         <f t="shared" si="0"/>
         <v>71.083331999999999</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <f t="shared" si="1"/>
         <v>5.7142856399999999</v>
       </c>
@@ -7479,7 +7557,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="1">
         <v>15000</v>
       </c>
@@ -7495,11 +7573,12 @@
       <c r="L8" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="N8" s="13">
+      <c r="M8" s="18"/>
+      <c r="N8" s="12">
         <f t="shared" si="0"/>
         <v>88.854164999999995</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="12">
         <f t="shared" si="1"/>
         <v>7.1428570499999999</v>
       </c>
@@ -7520,7 +7599,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="1">
         <v>18000</v>
       </c>
@@ -7536,11 +7615,12 @@
       <c r="L9" s="2">
         <v>8.3333335000000002E-4</v>
       </c>
-      <c r="N9" s="13">
+      <c r="M9" s="18"/>
+      <c r="N9" s="12">
         <f t="shared" si="0"/>
         <v>106.62499799999999</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="12">
         <f t="shared" si="1"/>
         <v>8.5714284599999999</v>
       </c>
@@ -7561,7 +7641,7 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="1">
         <v>21000</v>
       </c>
@@ -7577,11 +7657,12 @@
       <c r="L10" s="2">
         <v>4.7619047E-4</v>
       </c>
-      <c r="N10" s="13">
+      <c r="M10" s="18"/>
+      <c r="N10" s="12">
         <f t="shared" si="0"/>
         <v>124.39583099999999</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="12">
         <f t="shared" si="1"/>
         <v>9.9999998699999999</v>
       </c>
@@ -7602,7 +7683,7 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="1">
         <v>24000</v>
       </c>
@@ -7618,11 +7699,12 @@
       <c r="L11" s="2">
         <v>7.0833332999999999E-4</v>
       </c>
-      <c r="N11" s="13">
+      <c r="M11" s="18"/>
+      <c r="N11" s="12">
         <f t="shared" si="0"/>
         <v>142.166664</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="12">
         <f t="shared" si="1"/>
         <v>11.42857128</v>
       </c>
@@ -7643,7 +7725,7 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="1">
         <v>27000</v>
       </c>
@@ -7659,11 +7741,12 @@
       <c r="L12" s="1">
         <v>2.1481480999999999E-3</v>
       </c>
-      <c r="N12" s="13">
+      <c r="M12" s="18"/>
+      <c r="N12" s="12">
         <f t="shared" si="0"/>
         <v>159.93749699999998</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="12">
         <f t="shared" si="1"/>
         <v>12.85714269</v>
       </c>
@@ -7684,7 +7767,7 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="1">
         <v>30000</v>
       </c>
@@ -7700,11 +7783,12 @@
       <c r="L13" s="1">
         <v>1.1333332999999999E-3</v>
       </c>
-      <c r="N13" s="13">
+      <c r="M13" s="18"/>
+      <c r="N13" s="12">
         <f t="shared" si="0"/>
         <v>177.70832999999999</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="12">
         <f t="shared" si="1"/>
         <v>14.2857141</v>
       </c>
@@ -7725,7 +7809,7 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="1">
         <v>33000</v>
       </c>
@@ -7741,11 +7825,12 @@
       <c r="L14" s="1">
         <v>1.3636363E-3</v>
       </c>
-      <c r="N14" s="13">
+      <c r="M14" s="18"/>
+      <c r="N14" s="12">
         <f t="shared" si="0"/>
         <v>195.479163</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="12">
         <f t="shared" si="1"/>
         <v>15.71428551</v>
       </c>
@@ -7766,7 +7851,7 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="1">
         <v>36000</v>
       </c>
@@ -7782,11 +7867,12 @@
       <c r="L15" s="2">
         <v>6.9444446000000001E-4</v>
       </c>
-      <c r="N15" s="13">
+      <c r="M15" s="18"/>
+      <c r="N15" s="12">
         <f t="shared" si="0"/>
         <v>213.24999599999998</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <f t="shared" si="1"/>
         <v>17.14285692</v>
       </c>
@@ -7807,7 +7893,7 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="1">
         <v>39000</v>
       </c>
@@ -7823,11 +7909,12 @@
       <c r="L16" s="1">
         <v>3.1025639999999999E-3</v>
       </c>
-      <c r="N16" s="13">
+      <c r="M16" s="18"/>
+      <c r="N16" s="12">
         <f t="shared" si="0"/>
         <v>231.02082899999999</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="12">
         <f t="shared" si="1"/>
         <v>18.57142833</v>
       </c>
@@ -7848,7 +7935,7 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="1">
         <v>42000</v>
       </c>
@@ -7864,11 +7951,12 @@
       <c r="L17" s="2">
         <v>8.0952379999999998E-4</v>
       </c>
-      <c r="N17" s="13">
+      <c r="M17" s="18"/>
+      <c r="N17" s="12">
         <f t="shared" si="0"/>
         <v>248.79166199999997</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="12">
         <f t="shared" si="1"/>
         <v>19.99999974</v>
       </c>
@@ -7889,7 +7977,7 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="1">
         <v>45000</v>
       </c>
@@ -7905,11 +7993,12 @@
       <c r="L18" s="1">
         <v>1.4666667E-3</v>
       </c>
-      <c r="N18" s="13">
+      <c r="M18" s="18"/>
+      <c r="N18" s="12">
         <f t="shared" si="0"/>
         <v>266.56249499999996</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="12">
         <f t="shared" si="1"/>
         <v>21.42857115</v>
       </c>
@@ -7930,7 +8019,7 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="1">
         <v>48000</v>
       </c>
@@ -7946,11 +8035,12 @@
       <c r="L19" s="1">
         <v>1.1458333000000001E-3</v>
       </c>
-      <c r="N19" s="13">
+      <c r="M19" s="18"/>
+      <c r="N19" s="12">
         <f t="shared" si="0"/>
         <v>284.33332799999999</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="12">
         <f t="shared" si="1"/>
         <v>22.85714256</v>
       </c>
@@ -7971,7 +8061,7 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="1">
         <v>51000</v>
       </c>
@@ -7987,11 +8077,12 @@
       <c r="L20" s="1">
         <v>2.4313726E-3</v>
       </c>
-      <c r="N20" s="13">
+      <c r="M20" s="18"/>
+      <c r="N20" s="12">
         <f t="shared" si="0"/>
         <v>302.10416099999998</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="12">
         <f t="shared" si="1"/>
         <v>24.28571397</v>
       </c>
@@ -8012,7 +8103,7 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="1">
         <v>54000</v>
       </c>
@@ -8028,11 +8119,12 @@
       <c r="L21" s="1">
         <v>1.0740741E-3</v>
       </c>
-      <c r="N21" s="13">
+      <c r="M21" s="18"/>
+      <c r="N21" s="12">
         <f t="shared" si="0"/>
         <v>319.87499399999996</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="12">
         <f t="shared" si="1"/>
         <v>25.71428538</v>
       </c>
@@ -8053,7 +8145,7 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="1">
         <v>57000</v>
       </c>
@@ -8069,11 +8161,12 @@
       <c r="L22" s="1">
         <v>1.5964912000000001E-3</v>
       </c>
-      <c r="N22" s="13">
+      <c r="M22" s="18"/>
+      <c r="N22" s="12">
         <f t="shared" si="0"/>
         <v>337.645827</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="12">
         <f t="shared" si="1"/>
         <v>27.14285679</v>
       </c>
@@ -8094,7 +8187,7 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="1">
         <v>60000</v>
       </c>
@@ -8110,11 +8203,12 @@
       <c r="L23" s="1">
         <v>1.15E-3</v>
       </c>
-      <c r="N23" s="13">
+      <c r="M23" s="18"/>
+      <c r="N23" s="12">
         <f t="shared" si="0"/>
         <v>355.41665999999998</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="12">
         <f t="shared" si="1"/>
         <v>28.5714282</v>
       </c>
@@ -8135,7 +8229,7 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="1">
         <v>63000</v>
       </c>
@@ -8151,11 +8245,12 @@
       <c r="L24" s="1">
         <v>3.5396825999999999E-3</v>
       </c>
-      <c r="N24" s="13">
+      <c r="M24" s="18"/>
+      <c r="N24" s="12">
         <f t="shared" si="0"/>
         <v>373.18749299999996</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="12">
         <f t="shared" si="1"/>
         <v>29.99999961</v>
       </c>
@@ -8176,7 +8271,7 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="1">
         <v>66000</v>
       </c>
@@ -8192,11 +8287,12 @@
       <c r="L25" s="1">
         <v>1.2878788E-3</v>
       </c>
-      <c r="N25" s="13">
+      <c r="M25" s="18"/>
+      <c r="N25" s="12">
         <f t="shared" si="0"/>
         <v>390.958326</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="12">
         <f t="shared" si="1"/>
         <v>31.42857102</v>
       </c>
@@ -8217,7 +8313,7 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="1">
         <v>69000</v>
       </c>
@@ -8233,11 +8329,12 @@
       <c r="L26" s="1">
         <v>3.2028986999999998E-3</v>
       </c>
-      <c r="N26" s="13">
+      <c r="M26" s="18"/>
+      <c r="N26" s="12">
         <f t="shared" si="0"/>
         <v>408.72915899999998</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="12">
         <f t="shared" si="1"/>
         <v>32.857142430000003</v>
       </c>
@@ -8258,7 +8355,7 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="1">
         <v>72000</v>
       </c>
@@ -8274,11 +8371,12 @@
       <c r="L27" s="1">
         <v>1.2361112000000001E-3</v>
       </c>
-      <c r="N27" s="13">
+      <c r="M27" s="18"/>
+      <c r="N27" s="12">
         <f t="shared" si="0"/>
         <v>426.49999199999996</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="12">
         <f t="shared" si="1"/>
         <v>34.28571384</v>
       </c>
@@ -8299,7 +8397,7 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="1">
         <v>75000</v>
       </c>
@@ -8315,11 +8413,12 @@
       <c r="L28" s="1">
         <v>1.4533332999999999E-3</v>
       </c>
-      <c r="N28" s="13">
+      <c r="M28" s="18"/>
+      <c r="N28" s="12">
         <f t="shared" si="0"/>
         <v>444.27082499999995</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="12">
         <f t="shared" si="1"/>
         <v>35.714285250000003</v>
       </c>
@@ -8340,7 +8439,7 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="1">
         <v>78000</v>
       </c>
@@ -8356,11 +8455,12 @@
       <c r="L29" s="1">
         <v>1.6410257E-3</v>
       </c>
-      <c r="N29" s="13">
+      <c r="M29" s="18"/>
+      <c r="N29" s="12">
         <f t="shared" si="0"/>
         <v>462.04165799999998</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="12">
         <f t="shared" si="1"/>
         <v>37.14285666</v>
       </c>
@@ -8381,7 +8481,7 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="1">
         <v>81000</v>
       </c>
@@ -8397,11 +8497,12 @@
       <c r="L30" s="1">
         <v>1.7037037E-3</v>
       </c>
-      <c r="N30" s="13">
+      <c r="M30" s="18"/>
+      <c r="N30" s="12">
         <f t="shared" si="0"/>
         <v>479.81249099999997</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="12">
         <f t="shared" si="1"/>
         <v>38.571428070000003</v>
       </c>
@@ -8422,7 +8523,7 @@
       <c r="F31" s="1">
         <v>3.5714286999999997E-2</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="1">
         <v>84000</v>
       </c>
@@ -8438,11 +8539,12 @@
       <c r="L31" s="1">
         <v>2.9642856999999999E-3</v>
       </c>
-      <c r="N31" s="13">
+      <c r="M31" s="18"/>
+      <c r="N31" s="12">
         <f t="shared" si="0"/>
         <v>497.58332399999995</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="12">
         <f t="shared" si="1"/>
         <v>39.99999948</v>
       </c>
@@ -8463,7 +8565,7 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="1">
         <v>87000</v>
       </c>
@@ -8479,11 +8581,12 @@
       <c r="L32" s="1">
         <v>2.7586208000000001E-3</v>
       </c>
-      <c r="N32" s="13">
+      <c r="M32" s="18"/>
+      <c r="N32" s="12">
         <f t="shared" si="0"/>
         <v>515.35415699999999</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="12">
         <f t="shared" si="1"/>
         <v>41.428570890000003</v>
       </c>
@@ -8504,7 +8607,7 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="1">
         <v>90000</v>
       </c>
@@ -8520,11 +8623,12 @@
       <c r="L33" s="1">
         <v>2.3111111999999999E-3</v>
       </c>
-      <c r="N33" s="13">
+      <c r="M33" s="18"/>
+      <c r="N33" s="12">
         <f t="shared" si="0"/>
         <v>533.12498999999991</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="12">
         <f t="shared" si="1"/>
         <v>42.8571423</v>
       </c>
@@ -8545,7 +8649,7 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="1">
         <v>93000</v>
       </c>
@@ -8561,11 +8665,12 @@
       <c r="L34" s="1">
         <v>1.8279570000000001E-3</v>
       </c>
-      <c r="N34" s="13">
+      <c r="M34" s="18"/>
+      <c r="N34" s="12">
         <f t="shared" si="0"/>
         <v>550.89582299999995</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="12">
         <f t="shared" si="1"/>
         <v>44.285713710000003</v>
       </c>
@@ -8586,7 +8691,7 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="1">
         <v>96000</v>
       </c>
@@ -8602,11 +8707,12 @@
       <c r="L35" s="1">
         <v>1.8854167E-3</v>
       </c>
-      <c r="N35" s="13">
+      <c r="M35" s="18"/>
+      <c r="N35" s="12">
         <f t="shared" si="0"/>
         <v>568.66665599999999</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="12">
         <f t="shared" si="1"/>
         <v>45.71428512</v>
       </c>
@@ -8627,7 +8733,7 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="1">
         <v>99000</v>
       </c>
@@ -8643,11 +8749,12 @@
       <c r="L36" s="1">
         <v>4.8282825999999999E-3</v>
       </c>
-      <c r="N36" s="13">
+      <c r="M36" s="18"/>
+      <c r="N36" s="12">
         <f t="shared" si="0"/>
         <v>586.43748899999991</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="12">
         <f t="shared" si="1"/>
         <v>47.142856530000003</v>
       </c>
@@ -8668,7 +8775,7 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="1">
         <v>102000</v>
       </c>
@@ -8684,11 +8791,12 @@
       <c r="L37" s="1">
         <v>5.1274509999999999E-3</v>
       </c>
-      <c r="N37" s="13">
+      <c r="M37" s="18"/>
+      <c r="N37" s="12">
         <f t="shared" si="0"/>
         <v>604.20832199999995</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="12">
         <f t="shared" si="1"/>
         <v>48.57142794</v>
       </c>
@@ -8709,7 +8817,7 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="1">
         <v>105000</v>
       </c>
@@ -8725,11 +8833,12 @@
       <c r="L38" s="1">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="N38" s="13">
+      <c r="M38" s="18"/>
+      <c r="N38" s="12">
         <f t="shared" si="0"/>
         <v>621.97915499999999</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="12">
         <f t="shared" si="1"/>
         <v>49.999999350000003</v>
       </c>
@@ -8750,7 +8859,7 @@
       <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="1">
         <v>108000</v>
       </c>
@@ -8766,11 +8875,12 @@
       <c r="L39" s="1">
         <v>4.2129630000000001E-3</v>
       </c>
-      <c r="N39" s="13">
+      <c r="M39" s="18"/>
+      <c r="N39" s="12">
         <f t="shared" si="0"/>
         <v>639.74998799999992</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="12">
         <f t="shared" si="1"/>
         <v>51.428570759999999</v>
       </c>
@@ -8791,7 +8901,7 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="1">
         <v>111000</v>
       </c>
@@ -8807,11 +8917,12 @@
       <c r="L40" s="1">
         <v>4.009009E-3</v>
       </c>
-      <c r="N40" s="13">
+      <c r="M40" s="18"/>
+      <c r="N40" s="12">
         <f t="shared" si="0"/>
         <v>657.52082099999996</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="12">
         <f t="shared" si="1"/>
         <v>52.857142170000003</v>
       </c>
@@ -8832,7 +8943,7 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="1">
         <v>114000</v>
       </c>
@@ -8848,11 +8959,12 @@
       <c r="L41" s="1">
         <v>4.2192983000000003E-3</v>
       </c>
-      <c r="N41" s="13">
+      <c r="M41" s="18"/>
+      <c r="N41" s="12">
         <f t="shared" si="0"/>
         <v>675.29165399999999</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="12">
         <f t="shared" si="1"/>
         <v>54.285713579999999</v>
       </c>
@@ -8873,7 +8985,7 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="1">
         <v>117000</v>
       </c>
@@ -8889,11 +9001,12 @@
       <c r="L42" s="1">
         <v>3.5982904999999998E-3</v>
       </c>
-      <c r="N42" s="13">
+      <c r="M42" s="18"/>
+      <c r="N42" s="12">
         <f t="shared" si="0"/>
         <v>693.06248699999992</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="12">
         <f t="shared" si="1"/>
         <v>55.714284990000003</v>
       </c>
@@ -8914,7 +9027,7 @@
       <c r="F43" s="1">
         <v>0</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="1">
         <v>120000</v>
       </c>
@@ -8930,11 +9043,12 @@
       <c r="L43" s="1">
         <v>5.3583331999999999E-3</v>
       </c>
-      <c r="N43" s="13">
+      <c r="M43" s="18"/>
+      <c r="N43" s="12">
         <f t="shared" si="0"/>
         <v>710.83331999999996</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="12">
         <f t="shared" si="1"/>
         <v>57.142856399999999</v>
       </c>
@@ -8955,7 +9069,7 @@
       <c r="F44" s="1">
         <v>0</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="1">
         <v>123000</v>
       </c>
@@ -8971,11 +9085,12 @@
       <c r="L44" s="1">
         <v>4.796748E-3</v>
       </c>
-      <c r="N44" s="13">
+      <c r="M44" s="18"/>
+      <c r="N44" s="12">
         <f t="shared" si="0"/>
         <v>728.604153</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="12">
         <f t="shared" si="1"/>
         <v>58.571427810000003</v>
       </c>
@@ -8996,7 +9111,7 @@
       <c r="F45" s="1">
         <v>0</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="1">
         <v>126000</v>
       </c>
@@ -9012,11 +9127,12 @@
       <c r="L45" s="1">
         <v>5.4603172000000002E-3</v>
       </c>
-      <c r="N45" s="13">
+      <c r="M45" s="18"/>
+      <c r="N45" s="12">
         <f t="shared" si="0"/>
         <v>746.37498599999992</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="12">
         <f t="shared" si="1"/>
         <v>59.999999219999999</v>
       </c>
@@ -9037,7 +9153,7 @@
       <c r="F46" s="1">
         <v>0</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="1">
         <v>129000</v>
       </c>
@@ -9053,11 +9169,12 @@
       <c r="L46" s="1">
         <v>4.6511629999999998E-3</v>
       </c>
-      <c r="N46" s="13">
+      <c r="M46" s="18"/>
+      <c r="N46" s="12">
         <f t="shared" si="0"/>
         <v>764.14581899999996</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O46" s="12">
         <f t="shared" si="1"/>
         <v>61.428570630000003</v>
       </c>
@@ -9078,7 +9195,7 @@
       <c r="F47" s="1">
         <v>0</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="1">
         <v>132000</v>
       </c>
@@ -9094,11 +9211,12 @@
       <c r="L47" s="1">
         <v>5.0833331999999998E-3</v>
       </c>
-      <c r="N47" s="13">
+      <c r="M47" s="18"/>
+      <c r="N47" s="12">
         <f t="shared" si="0"/>
         <v>781.916652</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="12">
         <f t="shared" si="1"/>
         <v>62.857142039999999</v>
       </c>
@@ -9119,7 +9237,7 @@
       <c r="F48" s="1">
         <v>0</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="1">
         <v>135000</v>
       </c>
@@ -9135,11 +9253,12 @@
       <c r="L48" s="1">
         <v>5.6222219999999996E-3</v>
       </c>
-      <c r="N48" s="13">
+      <c r="M48" s="18"/>
+      <c r="N48" s="12">
         <f t="shared" si="0"/>
         <v>799.68748499999992</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O48" s="12">
         <f t="shared" si="1"/>
         <v>64.285713450000003</v>
       </c>
@@ -9160,7 +9279,7 @@
       <c r="F49" s="1">
         <v>0</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="17"/>
       <c r="H49" s="1">
         <v>138000</v>
       </c>
@@ -9176,11 +9295,12 @@
       <c r="L49" s="1">
         <v>4.789855E-3</v>
       </c>
-      <c r="N49" s="13">
+      <c r="M49" s="18"/>
+      <c r="N49" s="12">
         <f t="shared" si="0"/>
         <v>817.45831799999996</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O49" s="12">
         <f t="shared" si="1"/>
         <v>65.714284860000006</v>
       </c>
@@ -9201,7 +9321,7 @@
       <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="1">
         <v>141000</v>
       </c>
@@ -9217,11 +9337,12 @@
       <c r="L50" s="1">
         <v>5.0992909999999997E-3</v>
       </c>
-      <c r="N50" s="13">
+      <c r="M50" s="18"/>
+      <c r="N50" s="12">
         <f t="shared" si="0"/>
         <v>835.229151</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O50" s="12">
         <f t="shared" si="1"/>
         <v>67.142856269999996</v>
       </c>
@@ -9242,7 +9363,7 @@
       <c r="F51" s="1">
         <v>0</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="1">
         <v>144000</v>
       </c>
@@ -9258,11 +9379,12 @@
       <c r="L51" s="1">
         <v>5.9236109999999996E-3</v>
       </c>
-      <c r="N51" s="13">
+      <c r="M51" s="18"/>
+      <c r="N51" s="12">
         <f t="shared" si="0"/>
         <v>852.99998399999993</v>
       </c>
-      <c r="O51" s="13">
+      <c r="O51" s="12">
         <f t="shared" si="1"/>
         <v>68.571427679999999</v>
       </c>
@@ -9283,7 +9405,7 @@
       <c r="F52" s="1">
         <v>0</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="1">
         <v>147000</v>
       </c>
@@ -9299,11 +9421,12 @@
       <c r="L52" s="1">
         <v>4.9931975000000002E-3</v>
       </c>
-      <c r="N52" s="13">
+      <c r="M52" s="18"/>
+      <c r="N52" s="12">
         <f t="shared" si="0"/>
         <v>870.77081699999997</v>
       </c>
-      <c r="O52" s="13">
+      <c r="O52" s="12">
         <f t="shared" si="1"/>
         <v>69.999999090000003</v>
       </c>
@@ -9324,7 +9447,7 @@
       <c r="F53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="1">
         <v>150000</v>
       </c>
@@ -9340,19 +9463,22 @@
       <c r="L53" s="1">
         <v>5.9133335000000004E-3</v>
       </c>
-      <c r="N53" s="13">
+      <c r="M53" s="18"/>
+      <c r="N53" s="12">
         <f t="shared" si="0"/>
         <v>888.54164999999989</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O53" s="12">
         <f t="shared" si="1"/>
         <v>71.428570500000006</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="G2:G53"/>
+    <mergeCell ref="M2:M53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Compiled_Results.xlsx
+++ b/Compiled_Results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-44000" yWindow="-18980" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-4400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -263,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -334,36 +337,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,19 +369,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,10 +761,10 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7.0</c:v>
@@ -786,58 +773,58 @@
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>47.0</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>77.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>122.0</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>215.0</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>321.0</c:v>
+                  <c:v>317.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>518.0</c:v>
+                  <c:v>509.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>857.0</c:v>
+                  <c:v>834.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1382.0</c:v>
+                  <c:v>1304.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2439.0</c:v>
+                  <c:v>2230.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3702.0</c:v>
+                  <c:v>3459.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5615.0</c:v>
+                  <c:v>6106.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9326.0</c:v>
+                  <c:v>9237.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14534.0</c:v>
+                  <c:v>14771.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23867.0</c:v>
+                  <c:v>23943.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38306.0</c:v>
+                  <c:v>38622.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>61877.0</c:v>
+                  <c:v>63066.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +856,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -923,7 +910,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.0</c:v>
@@ -950,7 +937,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.0</c:v>
@@ -971,7 +958,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.0</c:v>
@@ -1032,11 +1019,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2092276160"/>
-        <c:axId val="2094370832"/>
+        <c:axId val="-2127827200"/>
+        <c:axId val="-2109488624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092276160"/>
+        <c:axId val="-2127827200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094370832"/>
+        <c:crossAx val="-2109488624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1144,7 +1131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094370832"/>
+        <c:axId val="-2109488624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092276160"/>
+        <c:crossAx val="-2127827200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1702,10 +1689,10 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7.0</c:v>
@@ -1714,58 +1701,58 @@
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>47.0</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>77.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>122.0</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>215.0</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>321.0</c:v>
+                  <c:v>317.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>518.0</c:v>
+                  <c:v>509.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>857.0</c:v>
+                  <c:v>834.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1382.0</c:v>
+                  <c:v>1304.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2439.0</c:v>
+                  <c:v>2230.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3702.0</c:v>
+                  <c:v>3459.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5615.0</c:v>
+                  <c:v>6106.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9326.0</c:v>
+                  <c:v>9237.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14534.0</c:v>
+                  <c:v>14771.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23867.0</c:v>
+                  <c:v>23943.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38306.0</c:v>
+                  <c:v>38622.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>61877.0</c:v>
+                  <c:v>63066.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1805,127 +1792,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>5.9604644E-8</c:v>
+                  <c:v>5.96046447753906E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.19209288E-7</c:v>
+                  <c:v>1.19209289550781E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.38418576E-7</c:v>
+                  <c:v>2.38418579101562E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.76837152E-7</c:v>
+                  <c:v>4.76837158203125E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.53674304E-7</c:v>
+                  <c:v>9.53674316406249E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.907348608E-6</c:v>
+                  <c:v>1.9073486328125E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.814697216E-6</c:v>
+                  <c:v>3.814697265625E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.629394432E-6</c:v>
+                  <c:v>7.62939453125E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5258788864E-5</c:v>
+                  <c:v>1.52587890625E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0517577728E-5</c:v>
+                  <c:v>3.0517578125E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1035155456E-5</c:v>
+                  <c:v>6.103515625E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.000122070310912</c:v>
+                  <c:v>0.0001220703125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.000244140621824</c:v>
+                  <c:v>0.000244140625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.000488281243648</c:v>
+                  <c:v>0.00048828125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.000976562487296</c:v>
+                  <c:v>0.000976562499999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.001953124974592</c:v>
+                  <c:v>0.001953125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.003906249949184</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.007812499898368</c:v>
+                  <c:v>0.00781249999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.015624999796736</c:v>
+                  <c:v>0.015625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.031249999593472</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.062499999186944</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.124999998373888</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.249999996747776</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.499999993495552</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.999999986991104</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.999999973982208</c:v>
+                  <c:v>1.999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.999999947964416</c:v>
+                  <c:v>3.999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.999999895928832</c:v>
+                  <c:v>7.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.99999979185766</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31.99999958371533</c:v>
+                  <c:v>31.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>63.99999916743066</c:v>
+                  <c:v>63.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>127.9999983348613</c:v>
+                  <c:v>127.9999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>255.9999966697226</c:v>
+                  <c:v>255.9999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>511.9999933394452</c:v>
+                  <c:v>511.9999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1023.999986678891</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2047.999973357781</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4095.999946715562</c:v>
+                  <c:v>4095.999999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8191.999893431124</c:v>
+                  <c:v>8191.999999999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16383.99978686225</c:v>
+                  <c:v>16383.99999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32767.9995737245</c:v>
+                  <c:v>32767.99999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>65535.999147449</c:v>
+                  <c:v>65535.99999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,154 +1952,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.12027720433616E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.24055440867232E-10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.48110881734465E-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>8.9622176346893E-10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>1.79244352693786E-9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>3.58488705387572E-9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>7.16977410775143E-9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>1.43395482155029E-8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>2.86790964310057E-8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>5.73581928620115E-8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>1.14716385724023E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>2.29432771448046E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>4.58865542896092E-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>9.17731085792184E-7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>1.83546217158437E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>3.67092434316873E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>7.34184868633747E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>1.46836973726749E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>2.93673947453499E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>5.87347894906998E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000117469578981399</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000234939157962799</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000469878315925598</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000939756631851196</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00187951326370239</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00375902652740478</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0.00751805305480957</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0150361061096191</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0300722122192383</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0601444244384766</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0</c:v>
+                  <c:v>0.120288848876953</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0</c:v>
+                  <c:v>0.240577697753906</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0</c:v>
+                  <c:v>0.481155395507812</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0</c:v>
+                  <c:v>0.962310791015625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0</c:v>
+                  <c:v>1.92462158203125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>3.8492431640625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0</c:v>
+                  <c:v>7.698486328125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0</c:v>
+                  <c:v>15.39697265625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0</c:v>
+                  <c:v>30.7939453125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.0</c:v>
+                  <c:v>61.587890625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.0</c:v>
+                  <c:v>123.17578125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0</c:v>
+                  <c:v>246.3515625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0</c:v>
+                  <c:v>492.703125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0</c:v>
+                  <c:v>985.40625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>1970.8125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0</c:v>
+                  <c:v>3941.625</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0</c:v>
+                  <c:v>7883.25</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0</c:v>
+                  <c:v>15766.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>31533.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>63065.99999999978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,11 +2115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2092289776"/>
-        <c:axId val="2094493120"/>
+        <c:axId val="-2127758288"/>
+        <c:axId val="-2127752320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092289776"/>
+        <c:axId val="-2127758288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094493120"/>
+        <c:crossAx val="-2127752320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094493120"/>
+        <c:axId val="-2127752320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092289776"/>
+        <c:crossAx val="-2127758288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2714,154 +2701,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.0</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>121.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.0</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>124.0</c:v>
+                  <c:v>106.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.0</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>91.0</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>223.0</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>85.0</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>221.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>89.0</c:v>
+                  <c:v>243.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>109.0</c:v>
+                  <c:v>113.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>128.0</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>138.0</c:v>
+                  <c:v>287.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>249.0</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>240.0</c:v>
+                  <c:v>162.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>208.0</c:v>
+                  <c:v>279.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>170.0</c:v>
+                  <c:v>458.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>181.0</c:v>
+                  <c:v>203.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>478.0</c:v>
+                  <c:v>237.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>523.0</c:v>
+                  <c:v>398.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>483.0</c:v>
+                  <c:v>419.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>455.0</c:v>
+                  <c:v>362.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>445.0</c:v>
+                  <c:v>474.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>481.0</c:v>
+                  <c:v>927.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>421.0</c:v>
+                  <c:v>516.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>643.0</c:v>
+                  <c:v>705.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>590.0</c:v>
+                  <c:v>736.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>688.0</c:v>
+                  <c:v>493.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>600.0</c:v>
+                  <c:v>578.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>671.0</c:v>
+                  <c:v>862.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>759.0</c:v>
+                  <c:v>665.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>661.0</c:v>
+                  <c:v>874.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>719.0</c:v>
+                  <c:v>1052.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>853.0</c:v>
+                  <c:v>870.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>734.0</c:v>
+                  <c:v>1052.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>887.0</c:v>
+                  <c:v>757.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,154 +3047,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>17.770833</c:v>
+                  <c:v>24.39473684210526</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.541666</c:v>
+                  <c:v>48.78947368421052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.312499</c:v>
+                  <c:v>73.18421052631578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.083332</c:v>
+                  <c:v>97.57894736842104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.854165</c:v>
+                  <c:v>121.9736842105263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.624998</c:v>
+                  <c:v>146.3684210526315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124.395831</c:v>
+                  <c:v>170.7631578947368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142.166664</c:v>
+                  <c:v>195.1578947368421</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159.937497</c:v>
+                  <c:v>219.5526315789473</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>177.70833</c:v>
+                  <c:v>243.9473684210526</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>195.479163</c:v>
+                  <c:v>268.3421052631579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>213.249996</c:v>
+                  <c:v>292.7368421052631</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>231.020829</c:v>
+                  <c:v>317.1315789473684</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>248.791662</c:v>
+                  <c:v>341.5263157894736</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>266.562495</c:v>
+                  <c:v>365.9210526315789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>284.333328</c:v>
+                  <c:v>390.3157894736842</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>302.104161</c:v>
+                  <c:v>414.7105263157894</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>319.874994</c:v>
+                  <c:v>439.1052631578946</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>337.645827</c:v>
+                  <c:v>463.4999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>355.41666</c:v>
+                  <c:v>487.8947368421051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>373.187493</c:v>
+                  <c:v>512.2894736842104</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>390.958326</c:v>
+                  <c:v>536.6842105263157</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>408.729159</c:v>
+                  <c:v>561.078947368421</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>426.499992</c:v>
+                  <c:v>585.4736842105262</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>444.2708249999999</c:v>
+                  <c:v>609.8684210526314</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>462.041658</c:v>
+                  <c:v>634.2631578947368</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>479.812491</c:v>
+                  <c:v>658.657894736842</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>497.5833239999999</c:v>
+                  <c:v>683.0526315789472</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>515.354157</c:v>
+                  <c:v>707.4473684210525</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>533.12499</c:v>
+                  <c:v>731.8421052631578</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>550.895823</c:v>
+                  <c:v>756.236842105263</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>568.666656</c:v>
+                  <c:v>780.6315789473683</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>586.4374889999999</c:v>
+                  <c:v>805.0263157894735</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>604.208322</c:v>
+                  <c:v>829.4210526315787</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>621.979155</c:v>
+                  <c:v>853.815789473684</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>639.749988</c:v>
+                  <c:v>878.2105263157893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>657.520821</c:v>
+                  <c:v>902.6052631578946</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>675.291654</c:v>
+                  <c:v>926.9999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>693.0624869999999</c:v>
+                  <c:v>951.394736842105</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>710.83332</c:v>
+                  <c:v>975.7894736842102</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>728.604153</c:v>
+                  <c:v>1000.184210526316</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>746.374986</c:v>
+                  <c:v>1024.578947368421</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>764.145819</c:v>
+                  <c:v>1048.973684210526</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>781.916652</c:v>
+                  <c:v>1073.368421052631</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>799.687485</c:v>
+                  <c:v>1097.763157894737</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>817.458318</c:v>
+                  <c:v>1122.157894736842</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>835.229151</c:v>
+                  <c:v>1146.552631578947</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>852.999984</c:v>
+                  <c:v>1170.947368421052</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>870.770817</c:v>
+                  <c:v>1195.342105263158</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>888.5416499999999</c:v>
+                  <c:v>1219.736842105263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,154 +3393,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.42857141</c:v>
+                  <c:v>0.999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.85714282</c:v>
+                  <c:v>1.999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.28571423</c:v>
+                  <c:v>2.999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.71428564</c:v>
+                  <c:v>3.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.14285705</c:v>
+                  <c:v>4.999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.57142846</c:v>
+                  <c:v>5.999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.99999987</c:v>
+                  <c:v>6.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.42857128</c:v>
+                  <c:v>7.999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.85714269</c:v>
+                  <c:v>8.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.2857141</c:v>
+                  <c:v>9.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.71428551</c:v>
+                  <c:v>10.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.14285692</c:v>
+                  <c:v>11.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.57142833</c:v>
+                  <c:v>12.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.99999974</c:v>
+                  <c:v>13.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.42857115</c:v>
+                  <c:v>14.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.85714256</c:v>
+                  <c:v>15.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.28571397</c:v>
+                  <c:v>16.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.71428538</c:v>
+                  <c:v>17.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.14285679</c:v>
+                  <c:v>18.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.5714282</c:v>
+                  <c:v>19.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.99999961</c:v>
+                  <c:v>20.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.42857102</c:v>
+                  <c:v>21.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.85714243</c:v>
+                  <c:v>22.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>34.28571384</c:v>
+                  <c:v>23.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>35.71428525</c:v>
+                  <c:v>24.99999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37.14285666</c:v>
+                  <c:v>25.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>38.57142807</c:v>
+                  <c:v>26.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39.99999948</c:v>
+                  <c:v>27.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41.42857089</c:v>
+                  <c:v>28.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42.8571423</c:v>
+                  <c:v>29.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44.28571371</c:v>
+                  <c:v>30.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45.71428512</c:v>
+                  <c:v>31.99999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.14285653</c:v>
+                  <c:v>32.99999999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>48.57142794</c:v>
+                  <c:v>33.99999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>49.99999935</c:v>
+                  <c:v>34.99999999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51.42857076</c:v>
+                  <c:v>35.99999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>52.85714217</c:v>
+                  <c:v>36.99999999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>54.28571358</c:v>
+                  <c:v>37.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>55.71428499</c:v>
+                  <c:v>38.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>57.1428564</c:v>
+                  <c:v>39.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>58.57142781</c:v>
+                  <c:v>40.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>59.99999922</c:v>
+                  <c:v>41.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61.42857063</c:v>
+                  <c:v>42.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62.85714204</c:v>
+                  <c:v>43.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>64.28571345</c:v>
+                  <c:v>44.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>65.71428486</c:v>
+                  <c:v>45.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>67.14285627</c:v>
+                  <c:v>46.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>68.57142768</c:v>
+                  <c:v>47.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>69.99999909</c:v>
+                  <c:v>48.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>71.42857050000001</c:v>
+                  <c:v>49.99999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3569,11 +3556,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2092372928"/>
-        <c:axId val="2092378976"/>
+        <c:axId val="-2127693792"/>
+        <c:axId val="-2127687824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092372928"/>
+        <c:axId val="-2127693792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3673,7 +3660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092378976"/>
+        <c:crossAx val="-2127687824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3681,7 +3668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092378976"/>
+        <c:axId val="-2127687824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +3775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092372928"/>
+        <c:crossAx val="-2127693792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5913,7 +5900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -5926,1358 +5913,1358 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I53"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="11"/>
+    <col min="1" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="11.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="8"/>
     <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="9" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="13">
+      <c r="G3" s="14"/>
+      <c r="H3" s="10">
         <f>MAX(F4:F53)</f>
-        <v>2.9802322000000001E-8</v>
-      </c>
-      <c r="I3" s="14">
-        <f>MIN(F4:F53)</f>
-        <v>0</v>
+        <v>2.9802322387695299E-5</v>
+      </c>
+      <c r="I3" s="16">
+        <f t="array" ref="I3">MIN(IF(F4:F53&gt;0,F4:F53))</f>
+        <v>5.6013860216808098E-8</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="9">
+        <f>H$3*E4</f>
+        <v>5.9604644775390599E-8</v>
+      </c>
+      <c r="I4" s="9">
+        <f>I$3*E4</f>
+        <v>1.120277204336162E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="12">
-        <f>H$3*E4</f>
-        <v>5.9604644000000002E-8</v>
-      </c>
-      <c r="I4" s="12">
-        <f>I$3*E4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5:H53" si="0">H$3*E5</f>
+        <v>1.192092895507812E-7</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" ref="I5:I53" si="1">I$3*E5</f>
+        <v>2.2405544086723239E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>2.3841857910156239E-7</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4811088173446478E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>4.7683715820312479E-7</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>8.9622176346892957E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="9">
+        <f t="shared" si="0"/>
+        <v>9.5367431640624958E-7</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7924435269378591E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9073486328124992E-6</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>3.5848870538757183E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8146972656249983E-6</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="1"/>
+        <v>7.1697741077514365E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>7.6293945312499966E-6</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4339548215502873E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5258789062499993E-5</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="1"/>
+        <v>2.8679096431005746E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.024</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.0517578124999986E-5</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>5.7358192862011492E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.048</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>6.1035156249999973E-5</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1471638572402298E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>144</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2207031249999995E-4</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
+        <v>2.2943277144804597E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>233</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.1920000000000002</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4414062499999989E-4</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
+        <v>4.5886554289609194E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>377</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16.384</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8828124999999978E-4</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="1"/>
+        <v>9.1773108579218388E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>610</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>32.768000000000001</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
+        <v>9.7656249999999957E-4</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8354621715843678E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>987</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>65.536000000000001</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9531249999999991E-3</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6709243431687355E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1597</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>131.072</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9062499999999983E-3</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="1"/>
+        <v>7.341848686337471E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2584</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>262.14400000000001</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="9">
+        <f t="shared" si="0"/>
+        <v>7.8124999999999965E-3</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="1"/>
+        <v>1.4683697372674942E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4181</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>524.28800000000001</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5624999999999993E-2</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="1"/>
+        <v>2.9367394745349884E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6765</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1048.576</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1249999999999986E-2</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="1"/>
+        <v>5.8734789490699768E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10946</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2097.152</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="9">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999972E-2</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1746957898139954E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>17711</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4194.3040000000001</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12499999999999994</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="1"/>
+        <v>2.3493915796279907E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>28657</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8388.6080000000002</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999989</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="1"/>
+        <v>4.6987831592559814E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1">
+        <v>46368</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>16777.216</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999978</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="1"/>
+        <v>9.3975663185119629E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>75025</v>
+      </c>
+      <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="12">
-        <f t="shared" ref="H5:H53" si="0">H$3*E5</f>
-        <v>1.19209288E-7</v>
-      </c>
-      <c r="I5" s="12">
-        <f t="shared" ref="I5:I53" si="1">I$3*E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="E28" s="1">
+        <v>33554.432000000001</v>
+      </c>
+      <c r="F28" s="17">
+        <v>2.9802322387695299E-5</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>1.8795132637023926E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>121393</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>67108.864000000001</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1.49011611938476E-5</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999991</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>3.7590265274047852E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1">
+        <v>196418</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>134217.728</v>
+      </c>
+      <c r="F30" s="17">
+        <v>7.4505805969238197E-6</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999982</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>7.5180530548095703E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>317811</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>268435.45600000001</v>
+      </c>
+      <c r="F31" s="17">
+        <v>3.7252902984619098E-6</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="9">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999964</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5036106109619141E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1">
+        <v>514229</v>
+      </c>
+      <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="12">
-        <f t="shared" si="0"/>
-        <v>2.3841857600000001E-7</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="12">
-        <f t="shared" si="0"/>
-        <v>4.7683715200000002E-7</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
+      <c r="E32" s="1">
+        <v>536870.91200000001</v>
+      </c>
+      <c r="F32" s="17">
+        <v>3.7252902984619098E-6</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="9">
+        <f t="shared" si="0"/>
+        <v>15.999999999999993</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="1"/>
+        <v>3.0072212219238281E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1">
+        <v>832040</v>
+      </c>
+      <c r="D33" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="E33" s="1">
+        <v>1073741.824</v>
+      </c>
+      <c r="F33" s="17">
+        <v>4.65661287307739E-6</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="9">
+        <f t="shared" si="0"/>
+        <v>31.999999999999986</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="1"/>
+        <v>6.0144424438476562E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1346269</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2147483.648</v>
+      </c>
+      <c r="F34" s="17">
+        <v>3.2596290111541701E-6</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="9">
+        <f t="shared" si="0"/>
+        <v>63.999999999999972</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="1"/>
+        <v>0.12028884887695312</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
         <v>32</v>
       </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="12">
-        <f t="shared" si="0"/>
-        <v>9.5367430400000004E-7</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="12">
-        <f t="shared" si="0"/>
-        <v>1.9073486080000001E-6</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>128</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="12">
-        <f t="shared" si="0"/>
-        <v>3.8146972160000002E-6</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>256</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="12">
-        <f t="shared" si="0"/>
-        <v>7.6293944320000003E-6</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="C35" s="1">
+        <v>2178309</v>
+      </c>
+      <c r="D35" s="1">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4294967.2960000001</v>
+      </c>
+      <c r="F35" s="17">
+        <v>2.56113708019256E-6</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="9">
+        <f t="shared" si="0"/>
+        <v>127.99999999999994</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="1"/>
+        <v>0.24057769775390625</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3524578</v>
+      </c>
+      <c r="D36" s="1">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8589934.5920000002</v>
+      </c>
+      <c r="F36" s="17">
+        <v>1.9790604710578902E-6</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="9">
+        <f t="shared" si="0"/>
+        <v>255.99999999999989</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.4811553955078125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
         <v>34</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>512</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5258788864000001E-5</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
-        <v>55</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1024</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>3.0517577728000001E-5</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="4">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <v>89</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2048</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="12">
-        <f t="shared" si="0"/>
-        <v>6.1035155456000002E-5</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4">
-        <v>144</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4096</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="12">
-        <f t="shared" si="0"/>
-        <v>1.22070310912E-4</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="4">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4">
-        <v>233</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>8192</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="12">
-        <f t="shared" si="0"/>
-        <v>2.4414062182400001E-4</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="4">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4">
-        <v>377</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>16384</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8828124364800002E-4</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4">
-        <v>610</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>32768</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>9.7656248729600004E-4</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="4">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4">
-        <v>987</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>65536</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="12">
-        <f t="shared" si="0"/>
-        <v>1.9531249745920001E-3</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="4">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1597</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>131072</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="12">
-        <f t="shared" si="0"/>
-        <v>3.9062499491840002E-3</v>
-      </c>
-      <c r="I20" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="4">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2584</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>262144</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="12">
-        <f t="shared" si="0"/>
-        <v>7.8124998983680003E-3</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="4">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4181</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>524288</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5624999796736001E-2</v>
-      </c>
-      <c r="I22" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="4">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4">
-        <v>6765</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1048576</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="12">
-        <f t="shared" si="0"/>
-        <v>3.1249999593472001E-2</v>
-      </c>
-      <c r="I23" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="4">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4">
-        <v>10946</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2097152</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="12">
-        <f t="shared" si="0"/>
-        <v>6.2499999186944002E-2</v>
-      </c>
-      <c r="I24" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="4">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4">
-        <v>17711</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4194304</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="12">
-        <f t="shared" si="0"/>
-        <v>0.124999998373888</v>
-      </c>
-      <c r="I25" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="4">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4">
-        <v>28657</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>8388608</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="12">
-        <f t="shared" si="0"/>
-        <v>0.24999999674777601</v>
-      </c>
-      <c r="I26" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="4">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4">
-        <v>46368</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>16777216</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="12">
-        <f t="shared" si="0"/>
-        <v>0.49999999349555202</v>
-      </c>
-      <c r="I27" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="4">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4">
-        <v>75025</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>33554432</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2.9802322000000001E-8</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="12">
-        <f t="shared" si="0"/>
-        <v>0.99999998699110404</v>
-      </c>
-      <c r="I28" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="4">
-        <v>26</v>
-      </c>
-      <c r="C29" s="4">
-        <v>121393</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>67108864</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1.4901161000000001E-8</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="12">
-        <f t="shared" si="0"/>
-        <v>1.9999999739822081</v>
-      </c>
-      <c r="I29" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="4">
-        <v>27</v>
-      </c>
-      <c r="C30" s="4">
-        <v>196418</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>134217728</v>
-      </c>
-      <c r="F30" s="5">
-        <v>7.4505806000000003E-9</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="12">
-        <f t="shared" si="0"/>
-        <v>3.9999999479644162</v>
-      </c>
-      <c r="I30" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="4">
-        <v>28</v>
-      </c>
-      <c r="C31" s="4">
-        <v>317811</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>268435456</v>
-      </c>
-      <c r="F31" s="5">
-        <v>3.7252903000000002E-9</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="12">
-        <f t="shared" si="0"/>
-        <v>7.9999998959288323</v>
-      </c>
-      <c r="I31" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="4">
-        <v>29</v>
-      </c>
-      <c r="C32" s="4">
-        <v>514229</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4">
-        <v>536870912</v>
-      </c>
-      <c r="F32" s="5">
-        <v>5.5879354000000002E-9</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="12">
-        <f t="shared" si="0"/>
-        <v>15.999999791857665</v>
-      </c>
-      <c r="I32" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="4">
+      <c r="C37" s="1">
+        <v>5702887</v>
+      </c>
+      <c r="D37" s="1">
         <v>30</v>
       </c>
-      <c r="C33" s="4">
-        <v>832040</v>
-      </c>
-      <c r="D33" s="4">
-        <v>4</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1073741824</v>
-      </c>
-      <c r="F33" s="5">
-        <v>3.7252903000000002E-9</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="12">
-        <f t="shared" si="0"/>
-        <v>31.999999583715329</v>
-      </c>
-      <c r="I33" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="4">
-        <v>31</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1346269</v>
-      </c>
-      <c r="D34" s="4">
-        <v>7</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2147483648</v>
-      </c>
-      <c r="F34" s="5">
-        <v>3.2596289999999999E-9</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="12">
-        <f t="shared" si="0"/>
-        <v>63.999999167430659</v>
-      </c>
-      <c r="I34" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="4">
-        <v>32</v>
-      </c>
-      <c r="C35" s="4">
-        <v>2178309</v>
-      </c>
-      <c r="D35" s="4">
-        <v>11</v>
-      </c>
-      <c r="E35" s="4">
-        <v>4294967296</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2.561137E-9</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="12">
-        <f t="shared" si="0"/>
-        <v>127.99999833486132</v>
-      </c>
-      <c r="I35" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="4">
-        <v>33</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3524578</v>
-      </c>
-      <c r="D36" s="4">
-        <v>18</v>
-      </c>
-      <c r="E36" s="4">
-        <v>8589934592</v>
-      </c>
-      <c r="F36" s="5">
-        <v>2.0954758000000002E-9</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="12">
-        <f t="shared" si="0"/>
-        <v>255.99999666972263</v>
-      </c>
-      <c r="I36" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="4">
-        <v>34</v>
-      </c>
-      <c r="C37" s="4">
-        <v>5702887</v>
-      </c>
-      <c r="D37" s="4">
-        <v>29</v>
-      </c>
-      <c r="E37" s="4">
-        <v>17179869184</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1.6880222E-9</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="12">
-        <f t="shared" si="0"/>
-        <v>511.99999333944527</v>
-      </c>
-      <c r="I37" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E37" s="2">
+        <v>17179869.184</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1.7462298274040201E-6</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="9">
+        <f t="shared" si="0"/>
+        <v>511.99999999999977</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="1"/>
+        <v>0.962310791015625</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="4">
+      <c r="B38" s="1">
         <v>35</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="1">
         <v>9227465</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="1">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2">
+        <v>34359738.368000001</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1.3387762010097499E-6</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="9">
+        <f t="shared" si="0"/>
+        <v>1023.9999999999995</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="1"/>
+        <v>1.92462158203125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1">
+        <v>14930352</v>
+      </c>
+      <c r="D39" s="1">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2">
+        <v>68719476.736000001</v>
+      </c>
+      <c r="F39" s="17">
+        <v>1.1059455573558801E-6</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="9">
+        <f t="shared" si="0"/>
+        <v>2047.9999999999991</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="1"/>
+        <v>3.8492431640625</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>24157817</v>
+      </c>
+      <c r="D40" s="1">
+        <v>124</v>
+      </c>
+      <c r="E40" s="2">
+        <v>137438953.472</v>
+      </c>
+      <c r="F40" s="17">
+        <v>9.0221874415874396E-7</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="9">
+        <f t="shared" si="0"/>
+        <v>4095.9999999999982</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="1"/>
+        <v>7.698486328125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1">
+        <v>39088169</v>
+      </c>
+      <c r="D41" s="1">
+        <v>205</v>
+      </c>
+      <c r="E41" s="2">
+        <v>274877906.94400001</v>
+      </c>
+      <c r="F41" s="17">
+        <v>7.4578565545380105E-7</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="9">
+        <f t="shared" si="0"/>
+        <v>8191.9999999999964</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="1"/>
+        <v>15.39697265625</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1">
+        <v>63245986</v>
+      </c>
+      <c r="D42" s="1">
+        <v>317</v>
+      </c>
+      <c r="E42" s="2">
+        <v>549755813.88800001</v>
+      </c>
+      <c r="F42" s="17">
+        <v>5.7661964092403597E-7</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="9">
+        <f t="shared" si="0"/>
+        <v>16383.999999999993</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="1"/>
+        <v>30.7939453125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1">
+        <v>102334155</v>
+      </c>
+      <c r="D43" s="1">
+        <v>509</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1099511627.776</v>
+      </c>
+      <c r="F43" s="17">
+        <v>4.6293280320242E-7</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="9">
+        <f t="shared" si="0"/>
+        <v>32767.999999999985</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="1"/>
+        <v>61.587890625</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1">
+        <v>165580141</v>
+      </c>
+      <c r="D44" s="1">
+        <v>834</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2199023255.552</v>
+      </c>
+      <c r="F44" s="17">
+        <v>3.7925929063931102E-7</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="9">
+        <f t="shared" si="0"/>
+        <v>65535.999999999971</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="1"/>
+        <v>123.17578125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1">
+        <v>267914296</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1304</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4398046511.1040001</v>
+      </c>
+      <c r="F45" s="17">
+        <v>2.9649527277797402E-7</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="9">
+        <f t="shared" si="0"/>
+        <v>131071.99999999994</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="1"/>
+        <v>246.3515625</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>433494437</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2230</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8796093022.2080002</v>
+      </c>
+      <c r="F46" s="17">
+        <v>2.5352164811920301E-7</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="9">
+        <f t="shared" si="0"/>
+        <v>262143.99999999988</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="1"/>
+        <v>492.703125</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1">
+        <v>701408733</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3459</v>
+      </c>
+      <c r="E47" s="2">
+        <v>17592186044.416</v>
+      </c>
+      <c r="F47" s="17">
+        <v>1.96621385839534E-7</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="9">
+        <f t="shared" si="0"/>
+        <v>524287.99999999977</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="1"/>
+        <v>985.40625</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1134903170</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6106</v>
+      </c>
+      <c r="E48" s="2">
+        <v>35184372088.832001</v>
+      </c>
+      <c r="F48" s="17">
+        <v>1.73542957782046E-7</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="9">
+        <f t="shared" si="0"/>
+        <v>1048575.9999999995</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="1"/>
+        <v>1970.8125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1836311903</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9237</v>
+      </c>
+      <c r="E49" s="2">
+        <v>70368744177.664001</v>
+      </c>
+      <c r="F49" s="17">
+        <v>1.3126566500432001E-7</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="9">
+        <f t="shared" si="0"/>
+        <v>2097151.9999999991</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="1"/>
+        <v>3941.625</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
         <v>47</v>
       </c>
-      <c r="E38" s="4">
-        <v>34359738368</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1.36788E-9</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="12">
-        <f t="shared" si="0"/>
-        <v>1023.9999866788905</v>
-      </c>
-      <c r="I38" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="4">
-        <v>36</v>
-      </c>
-      <c r="C39" s="4">
-        <v>14930352</v>
-      </c>
-      <c r="D39" s="4">
-        <v>77</v>
-      </c>
-      <c r="E39" s="4">
-        <v>68719476736</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1.1204975E-9</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="12">
-        <f t="shared" si="0"/>
-        <v>2047.9999733577811</v>
-      </c>
-      <c r="I39" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="4">
-        <v>37</v>
-      </c>
-      <c r="C40" s="4">
-        <v>24157817</v>
-      </c>
-      <c r="D40" s="4">
-        <v>122</v>
-      </c>
-      <c r="E40" s="4">
-        <v>137438953472</v>
-      </c>
-      <c r="F40" s="5">
-        <v>8.8766683000000004E-10</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="12">
-        <f t="shared" si="0"/>
-        <v>4095.9999467155621</v>
-      </c>
-      <c r="I40" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="4">
-        <v>38</v>
-      </c>
-      <c r="C41" s="4">
-        <v>39088169</v>
-      </c>
-      <c r="D41" s="4">
-        <v>215</v>
-      </c>
-      <c r="E41" s="4">
-        <v>274877906944</v>
-      </c>
-      <c r="F41" s="5">
-        <v>7.8216543999999995E-10</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="12">
-        <f t="shared" si="0"/>
-        <v>8191.9998934311243</v>
-      </c>
-      <c r="I41" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="4">
-        <v>39</v>
-      </c>
-      <c r="C42" s="4">
-        <v>63245986</v>
-      </c>
-      <c r="D42" s="4">
-        <v>321</v>
-      </c>
-      <c r="E42" s="4">
-        <v>549755813888</v>
-      </c>
-      <c r="F42" s="5">
-        <v>5.8389559999999996E-10</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="12">
-        <f t="shared" si="0"/>
-        <v>16383.999786862249</v>
-      </c>
-      <c r="I42" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="4">
-        <v>40</v>
-      </c>
-      <c r="C43" s="4">
-        <v>102334155</v>
-      </c>
-      <c r="D43" s="4">
-        <v>518</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1099511627776</v>
-      </c>
-      <c r="F43" s="5">
-        <v>4.7111826000000003E-10</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="12">
-        <f t="shared" si="0"/>
-        <v>32767.999573724497</v>
-      </c>
-      <c r="I43" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="4">
-        <v>41</v>
-      </c>
-      <c r="C44" s="4">
-        <v>165580141</v>
-      </c>
-      <c r="D44" s="4">
-        <v>857</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2199023255552</v>
-      </c>
-      <c r="F44" s="5">
-        <v>3.8971847999999997E-10</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="12">
-        <f t="shared" si="0"/>
-        <v>65535.999147448994</v>
-      </c>
-      <c r="I44" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="4">
-        <v>42</v>
-      </c>
-      <c r="C45" s="4">
-        <v>267914296</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1382</v>
-      </c>
-      <c r="E45" s="4">
-        <v>4398046511104</v>
-      </c>
-      <c r="F45" s="5">
-        <v>3.1423042000000002E-10</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="12">
-        <f t="shared" si="0"/>
-        <v>131071.99829489799</v>
-      </c>
-      <c r="I45" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="4">
-        <v>43</v>
-      </c>
-      <c r="C46" s="4">
-        <v>433494437</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2439</v>
-      </c>
-      <c r="E46" s="4">
-        <v>8796093022208</v>
-      </c>
-      <c r="F46" s="5">
-        <v>2.7728219999999998E-10</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="12">
-        <f t="shared" si="0"/>
-        <v>262143.99658979598</v>
-      </c>
-      <c r="I46" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="4">
-        <v>44</v>
-      </c>
-      <c r="C47" s="4">
-        <v>701408733</v>
-      </c>
-      <c r="D47" s="4">
-        <v>3702</v>
-      </c>
-      <c r="E47" s="4">
-        <v>17592186044416</v>
-      </c>
-      <c r="F47" s="5">
-        <v>2.1043433999999999E-10</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="12">
-        <f t="shared" si="0"/>
-        <v>524287.99317959195</v>
-      </c>
-      <c r="I47" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="4">
-        <v>45</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1134903170</v>
-      </c>
-      <c r="D48" s="4">
-        <v>5615</v>
-      </c>
-      <c r="E48" s="4">
-        <v>35184372088832</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1.5958789999999999E-10</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="12">
-        <f t="shared" si="0"/>
-        <v>1048575.9863591839</v>
-      </c>
-      <c r="I48" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="4">
-        <v>46</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1836311903</v>
-      </c>
-      <c r="D49" s="4">
-        <v>9326</v>
-      </c>
-      <c r="E49" s="4">
-        <v>70368744177664</v>
-      </c>
-      <c r="F49" s="5">
-        <v>1.3253043000000001E-10</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="12">
-        <f t="shared" si="0"/>
-        <v>2097151.9727183678</v>
-      </c>
-      <c r="I49" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="4">
-        <v>47</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="C50" s="1">
         <v>2971215073</v>
       </c>
-      <c r="D50" s="4">
-        <v>14534</v>
-      </c>
-      <c r="E50" s="4">
-        <v>140737488355328</v>
-      </c>
-      <c r="F50" s="5">
-        <v>1.0327028E-10</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="12">
-        <f t="shared" si="0"/>
-        <v>4194303.9454367356</v>
-      </c>
-      <c r="I50" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="D50" s="1">
+        <v>14771</v>
+      </c>
+      <c r="E50" s="2">
+        <v>140737488355.328</v>
+      </c>
+      <c r="F50" s="17">
+        <v>1.04954267499124E-7</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="9">
+        <f t="shared" si="0"/>
+        <v>4194303.9999999981</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="1"/>
+        <v>7883.25</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="4">
+      <c r="B51" s="1">
         <v>48</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <v>4807526976</v>
       </c>
-      <c r="D51" s="4">
-        <v>23867</v>
-      </c>
-      <c r="E51" s="4">
-        <v>281474976710656</v>
-      </c>
-      <c r="F51" s="5">
-        <v>8.4792619999999999E-11</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="12">
-        <f t="shared" si="0"/>
-        <v>8388607.8908734713</v>
-      </c>
-      <c r="I51" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="D51" s="1">
+        <v>23943</v>
+      </c>
+      <c r="E51" s="2">
+        <v>281474976710.65601</v>
+      </c>
+      <c r="F51" s="17">
+        <v>8.5062623611520394E-8</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="9">
+        <f t="shared" si="0"/>
+        <v>8388607.9999999963</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="1"/>
+        <v>15766.5</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="4">
+      <c r="B52" s="1">
         <v>49</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="1">
         <v>7778742049</v>
       </c>
-      <c r="D52" s="4">
-        <v>38306</v>
-      </c>
-      <c r="E52" s="4">
-        <v>562949953421312</v>
-      </c>
-      <c r="F52" s="5">
-        <v>6.8045124999999997E-11</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="12">
-        <f t="shared" si="0"/>
-        <v>16777215.781746943</v>
-      </c>
-      <c r="I52" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="D52" s="1">
+        <v>38622</v>
+      </c>
+      <c r="E52" s="2">
+        <v>562949953421.31201</v>
+      </c>
+      <c r="F52" s="17">
+        <v>6.8606453851316394E-8</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="9">
+        <f t="shared" si="0"/>
+        <v>16777215.999999993</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" si="1"/>
+        <v>31533</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="4">
+      <c r="B53" s="1">
         <v>50</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="1">
         <v>12586269025</v>
       </c>
-      <c r="D53" s="4">
-        <v>61877</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1125899906842620</v>
-      </c>
-      <c r="F53" s="5">
-        <v>5.4957816000000003E-11</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="12">
-        <f t="shared" si="0"/>
-        <v>33554431.563493766</v>
-      </c>
-      <c r="I53" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="D53" s="1">
+        <v>63066</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1125899906842.6201</v>
+      </c>
+      <c r="F53" s="17">
+        <v>5.6013860216808098E-8</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="9">
+        <f t="shared" si="0"/>
+        <v>33554431.99999987</v>
+      </c>
+      <c r="I53" s="9">
+        <f t="shared" si="1"/>
+        <v>63065.999999999782</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
@@ -7301,76 +7288,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="16" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="8" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="15">
+      <c r="M3" s="15"/>
+      <c r="N3" s="11">
         <f>MAX(L4:L53)</f>
-        <v>5.9236109999999996E-3</v>
-      </c>
-      <c r="O3" s="15">
+        <v>8.1315789473684195</v>
+      </c>
+      <c r="O3" s="11">
         <f>MIN(L4:L53)</f>
-        <v>4.7619047E-4</v>
+        <v>0.33333333333333298</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -7381,15 +7366,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17"/>
+        <v>1000</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="H4" s="1">
         <v>3000</v>
       </c>
@@ -7397,22 +7382,22 @@
         <v>3</v>
       </c>
       <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="1">
-        <v>3000</v>
-      </c>
       <c r="L4" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="12">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="9">
         <f>N$3*K4</f>
-        <v>17.770833</v>
-      </c>
-      <c r="O4" s="12">
+        <v>24.39473684210526</v>
+      </c>
+      <c r="O4" s="9">
         <f>O$3*K4</f>
-        <v>1.42857141</v>
+        <v>0.99999999999999889</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -7426,12 +7411,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>2E-3</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="1">
         <v>6000</v>
       </c>
@@ -7439,22 +7424,22 @@
         <v>4</v>
       </c>
       <c r="J5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1">
-        <v>6000</v>
-      </c>
-      <c r="L5" s="2">
-        <v>8.3333335000000002E-4</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="12">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="9">
         <f t="shared" ref="N5:N53" si="0">N$3*K5</f>
-        <v>35.541665999999999</v>
-      </c>
-      <c r="O5" s="12">
+        <v>48.78947368421052</v>
+      </c>
+      <c r="O5" s="9">
         <f t="shared" ref="O5:O53" si="1">O$3*K5</f>
-        <v>2.85714282</v>
+        <v>1.9999999999999978</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -7468,12 +7453,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="1">
         <v>9000</v>
       </c>
@@ -7481,22 +7466,22 @@
         <v>5</v>
       </c>
       <c r="J6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" s="1">
-        <v>9000</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5.5555557E-4</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="12">
-        <f t="shared" si="0"/>
-        <v>53.312498999999995</v>
-      </c>
-      <c r="O6" s="12">
-        <f t="shared" si="1"/>
-        <v>4.28571423</v>
+        <v>9</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="9">
+        <f t="shared" si="0"/>
+        <v>73.18421052631578</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999969</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -7510,12 +7495,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="1">
         <v>12000</v>
       </c>
@@ -7523,22 +7508,22 @@
         <v>6</v>
       </c>
       <c r="J7" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="1">
-        <v>12000</v>
-      </c>
-      <c r="L7" s="2">
-        <v>6.6666665999999997E-4</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="12">
-        <f t="shared" si="0"/>
-        <v>71.083331999999999</v>
-      </c>
-      <c r="O7" s="12">
-        <f t="shared" si="1"/>
-        <v>5.7142856399999999</v>
+        <v>12</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="9">
+        <f t="shared" si="0"/>
+        <v>97.578947368421041</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999956</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
@@ -7552,12 +7537,12 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="1">
         <v>15000</v>
       </c>
@@ -7565,22 +7550,22 @@
         <v>7</v>
       </c>
       <c r="J8" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="2">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="12">
-        <f t="shared" si="0"/>
-        <v>88.854164999999995</v>
-      </c>
-      <c r="O8" s="12">
-        <f t="shared" si="1"/>
-        <v>7.1428570499999999</v>
+        <v>15</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="9">
+        <f t="shared" si="0"/>
+        <v>121.97368421052629</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999947</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
@@ -7594,12 +7579,12 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="1">
         <v>18000</v>
       </c>
@@ -7607,22 +7592,22 @@
         <v>8</v>
       </c>
       <c r="J9" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1">
-        <v>18000</v>
-      </c>
-      <c r="L9" s="2">
-        <v>8.3333335000000002E-4</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="12">
-        <f t="shared" si="0"/>
-        <v>106.62499799999999</v>
-      </c>
-      <c r="O9" s="12">
-        <f t="shared" si="1"/>
-        <v>8.5714284599999999</v>
+        <v>18</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="9">
+        <f t="shared" si="0"/>
+        <v>146.36842105263156</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999938</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -7636,12 +7621,12 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>7</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="1">
         <v>21000</v>
       </c>
@@ -7649,22 +7634,22 @@
         <v>9</v>
       </c>
       <c r="J10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10" s="1">
-        <v>21000</v>
-      </c>
-      <c r="L10" s="2">
-        <v>4.7619047E-4</v>
-      </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="12">
-        <f t="shared" si="0"/>
-        <v>124.39583099999999</v>
-      </c>
-      <c r="O10" s="12">
-        <f t="shared" si="1"/>
-        <v>9.9999998699999999</v>
+        <v>21</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="9">
+        <f t="shared" si="0"/>
+        <v>170.76315789473682</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999929</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -7678,12 +7663,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="1">
         <v>24000</v>
       </c>
@@ -7691,22 +7676,22 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K11" s="1">
-        <v>24000</v>
-      </c>
-      <c r="L11" s="2">
-        <v>7.0833332999999999E-4</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="12">
-        <f t="shared" si="0"/>
-        <v>142.166664</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="1"/>
-        <v>11.42857128</v>
+        <v>24</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="9">
+        <f t="shared" si="0"/>
+        <v>195.15789473684208</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>7.9999999999999911</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -7720,12 +7705,12 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>9</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="1">
         <v>27000</v>
       </c>
@@ -7733,22 +7718,22 @@
         <v>11</v>
       </c>
       <c r="J12" s="1">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1">
-        <v>27000</v>
+        <v>27</v>
       </c>
       <c r="L12" s="1">
-        <v>2.1481480999999999E-3</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="12">
-        <f t="shared" si="0"/>
-        <v>159.93749699999998</v>
-      </c>
-      <c r="O12" s="12">
-        <f t="shared" si="1"/>
-        <v>12.85714269</v>
+        <v>1.55555555555555</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="9">
+        <f t="shared" si="0"/>
+        <v>219.55263157894731</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999911</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -7762,12 +7747,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="1">
         <v>30000</v>
       </c>
@@ -7775,22 +7760,22 @@
         <v>12</v>
       </c>
       <c r="J13" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K13" s="1">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1">
-        <v>1.1333332999999999E-3</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="12">
-        <f t="shared" si="0"/>
-        <v>177.70832999999999</v>
-      </c>
-      <c r="O13" s="12">
-        <f t="shared" si="1"/>
-        <v>14.2857141</v>
+        <v>0.9</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="9">
+        <f t="shared" si="0"/>
+        <v>243.94736842105257</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999893</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
@@ -7804,12 +7789,12 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>11</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="1">
         <v>33000</v>
       </c>
@@ -7817,22 +7802,22 @@
         <v>13</v>
       </c>
       <c r="J14" s="1">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1">
-        <v>33000</v>
+        <v>33</v>
       </c>
       <c r="L14" s="1">
-        <v>1.3636363E-3</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="12">
-        <f t="shared" si="0"/>
-        <v>195.479163</v>
-      </c>
-      <c r="O14" s="12">
-        <f t="shared" si="1"/>
-        <v>15.71428551</v>
+        <v>1.9393939393939299</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="9">
+        <f t="shared" si="0"/>
+        <v>268.34210526315786</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>10.999999999999988</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
@@ -7846,12 +7831,12 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>12</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="1">
         <v>36000</v>
       </c>
@@ -7859,22 +7844,22 @@
         <v>14</v>
       </c>
       <c r="J15" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K15" s="1">
-        <v>36000</v>
-      </c>
-      <c r="L15" s="2">
-        <v>6.9444446000000001E-4</v>
-      </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="12">
-        <f t="shared" si="0"/>
-        <v>213.24999599999998</v>
-      </c>
-      <c r="O15" s="12">
-        <f t="shared" si="1"/>
-        <v>17.14285692</v>
+        <v>36</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.0833333333333299</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="9">
+        <f t="shared" si="0"/>
+        <v>292.73684210526312</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>11.999999999999988</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
@@ -7888,12 +7873,12 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>13</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="1">
         <v>39000</v>
       </c>
@@ -7901,22 +7886,22 @@
         <v>15</v>
       </c>
       <c r="J16" s="1">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="K16" s="1">
-        <v>39000</v>
+        <v>39</v>
       </c>
       <c r="L16" s="1">
-        <v>3.1025639999999999E-3</v>
-      </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="12">
-        <f t="shared" si="0"/>
-        <v>231.02082899999999</v>
-      </c>
-      <c r="O16" s="12">
-        <f t="shared" si="1"/>
-        <v>18.57142833</v>
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="9">
+        <f t="shared" si="0"/>
+        <v>317.13157894736838</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>12.999999999999986</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -7930,12 +7915,12 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>14</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="1">
         <v>42000</v>
       </c>
@@ -7943,22 +7928,22 @@
         <v>16</v>
       </c>
       <c r="J17" s="1">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="K17" s="1">
-        <v>42000</v>
-      </c>
-      <c r="L17" s="2">
-        <v>8.0952379999999998E-4</v>
-      </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="12">
-        <f t="shared" si="0"/>
-        <v>248.79166199999997</v>
-      </c>
-      <c r="O17" s="12">
-        <f t="shared" si="1"/>
-        <v>19.99999974</v>
+        <v>42</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.59523809523809</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="9">
+        <f t="shared" si="0"/>
+        <v>341.52631578947364</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>13.999999999999986</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
@@ -7972,12 +7957,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="1">
         <v>45000</v>
       </c>
@@ -7985,22 +7970,22 @@
         <v>17</v>
       </c>
       <c r="J18" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K18" s="1">
-        <v>45000</v>
+        <v>45</v>
       </c>
       <c r="L18" s="1">
-        <v>1.4666667E-3</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="12">
-        <f t="shared" si="0"/>
-        <v>266.56249499999996</v>
-      </c>
-      <c r="O18" s="12">
-        <f t="shared" si="1"/>
-        <v>21.42857115</v>
+        <v>1.5333333333333301</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="9">
+        <f t="shared" si="0"/>
+        <v>365.9210526315789</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>14.999999999999984</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -8014,12 +7999,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>16</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="1">
         <v>48000</v>
       </c>
@@ -8027,22 +8012,22 @@
         <v>18</v>
       </c>
       <c r="J19" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K19" s="1">
-        <v>48000</v>
+        <v>48</v>
       </c>
       <c r="L19" s="1">
-        <v>1.1458333000000001E-3</v>
-      </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="12">
-        <f t="shared" si="0"/>
-        <v>284.33332799999999</v>
-      </c>
-      <c r="O19" s="12">
-        <f t="shared" si="1"/>
-        <v>22.85714256</v>
+        <v>1</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="9">
+        <f t="shared" si="0"/>
+        <v>390.31578947368416</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="1"/>
+        <v>15.999999999999982</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -8056,12 +8041,12 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>17</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="1">
         <v>51000</v>
       </c>
@@ -8069,22 +8054,22 @@
         <v>19</v>
       </c>
       <c r="J20" s="1">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="K20" s="1">
-        <v>51000</v>
+        <v>51</v>
       </c>
       <c r="L20" s="1">
-        <v>2.4313726E-3</v>
-      </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="12">
-        <f t="shared" si="0"/>
-        <v>302.10416099999998</v>
-      </c>
-      <c r="O20" s="12">
-        <f t="shared" si="1"/>
-        <v>24.28571397</v>
+        <v>2.07843137254901</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="9">
+        <f t="shared" si="0"/>
+        <v>414.71052631578937</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="1"/>
+        <v>16.999999999999982</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -8098,12 +8083,12 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>18</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="1">
         <v>54000</v>
       </c>
@@ -8111,22 +8096,22 @@
         <v>20</v>
       </c>
       <c r="J21" s="1">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="K21" s="1">
-        <v>54000</v>
+        <v>54</v>
       </c>
       <c r="L21" s="1">
-        <v>1.0740741E-3</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="12">
-        <f t="shared" si="0"/>
-        <v>319.87499399999996</v>
-      </c>
-      <c r="O21" s="12">
-        <f t="shared" si="1"/>
-        <v>25.71428538</v>
+        <v>1.42592592592592</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="9">
+        <f t="shared" si="0"/>
+        <v>439.10526315789463</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="1"/>
+        <v>17.999999999999982</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
@@ -8137,15 +8122,15 @@
         <v>4181</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>19</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17"/>
+        <v>52.631578947368403</v>
+      </c>
+      <c r="G22" s="14"/>
       <c r="H22" s="1">
         <v>57000</v>
       </c>
@@ -8153,22 +8138,22 @@
         <v>21</v>
       </c>
       <c r="J22" s="1">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K22" s="1">
-        <v>57000</v>
+        <v>57</v>
       </c>
       <c r="L22" s="1">
-        <v>1.5964912000000001E-3</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="12">
-        <f t="shared" si="0"/>
-        <v>337.645827</v>
-      </c>
-      <c r="O22" s="12">
-        <f t="shared" si="1"/>
-        <v>27.14285679</v>
+        <v>1.71929824561403</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="9">
+        <f t="shared" si="0"/>
+        <v>463.49999999999989</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="1"/>
+        <v>18.999999999999979</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
@@ -8182,12 +8167,12 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>20</v>
+        <v>0.02</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="1">
         <v>60000</v>
       </c>
@@ -8195,22 +8180,22 @@
         <v>22</v>
       </c>
       <c r="J23" s="1">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K23" s="1">
-        <v>60000</v>
+        <v>60</v>
       </c>
       <c r="L23" s="1">
-        <v>1.15E-3</v>
-      </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="12">
-        <f t="shared" si="0"/>
-        <v>355.41665999999998</v>
-      </c>
-      <c r="O23" s="12">
-        <f t="shared" si="1"/>
-        <v>28.5714282</v>
+        <v>1.0166666666666599</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="9">
+        <f t="shared" si="0"/>
+        <v>487.89473684210515</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="1"/>
+        <v>19.999999999999979</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
@@ -8224,12 +8209,12 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>21</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="1">
         <v>63000</v>
       </c>
@@ -8237,22 +8222,22 @@
         <v>23</v>
       </c>
       <c r="J24" s="1">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="K24" s="1">
-        <v>63000</v>
+        <v>63</v>
       </c>
       <c r="L24" s="1">
-        <v>3.5396825999999999E-3</v>
-      </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="12">
-        <f t="shared" si="0"/>
-        <v>373.18749299999996</v>
-      </c>
-      <c r="O24" s="12">
-        <f t="shared" si="1"/>
-        <v>29.99999961</v>
+        <v>2.63492063492063</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="9">
+        <f t="shared" si="0"/>
+        <v>512.28947368421041</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="1"/>
+        <v>20.999999999999979</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
@@ -8266,12 +8251,12 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>22</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="1">
         <v>66000</v>
       </c>
@@ -8279,22 +8264,22 @@
         <v>24</v>
       </c>
       <c r="J25" s="1">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K25" s="1">
-        <v>66000</v>
+        <v>66</v>
       </c>
       <c r="L25" s="1">
-        <v>1.2878788E-3</v>
-      </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="12">
-        <f t="shared" si="0"/>
-        <v>390.958326</v>
-      </c>
-      <c r="O25" s="12">
-        <f t="shared" si="1"/>
-        <v>31.42857102</v>
+        <v>1.1969696969696899</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="9">
+        <f t="shared" si="0"/>
+        <v>536.68421052631572</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="1"/>
+        <v>21.999999999999975</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
@@ -8308,12 +8293,12 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>23</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="1">
         <v>69000</v>
       </c>
@@ -8321,22 +8306,22 @@
         <v>25</v>
       </c>
       <c r="J26" s="1">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="K26" s="1">
-        <v>69000</v>
+        <v>69</v>
       </c>
       <c r="L26" s="1">
-        <v>3.2028986999999998E-3</v>
-      </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="12">
-        <f t="shared" si="0"/>
-        <v>408.72915899999998</v>
-      </c>
-      <c r="O26" s="12">
-        <f t="shared" si="1"/>
-        <v>32.857142430000003</v>
+        <v>2.0289855072463698</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="9">
+        <f t="shared" si="0"/>
+        <v>561.07894736842093</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="1"/>
+        <v>22.999999999999975</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
@@ -8350,12 +8335,12 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>24</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="1">
         <v>72000</v>
       </c>
@@ -8363,22 +8348,22 @@
         <v>26</v>
       </c>
       <c r="J27" s="1">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="K27" s="1">
-        <v>72000</v>
+        <v>72</v>
       </c>
       <c r="L27" s="1">
-        <v>1.2361112000000001E-3</v>
-      </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="12">
-        <f t="shared" si="0"/>
-        <v>426.49999199999996</v>
-      </c>
-      <c r="O27" s="12">
-        <f t="shared" si="1"/>
-        <v>34.28571384</v>
+        <v>3.375</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="9">
+        <f t="shared" si="0"/>
+        <v>585.47368421052624</v>
+      </c>
+      <c r="O27" s="9">
+        <f t="shared" si="1"/>
+        <v>23.999999999999975</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
@@ -8392,12 +8377,12 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="1">
         <v>75000</v>
       </c>
@@ -8405,22 +8390,22 @@
         <v>27</v>
       </c>
       <c r="J28" s="1">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K28" s="1">
-        <v>75000</v>
+        <v>75</v>
       </c>
       <c r="L28" s="1">
-        <v>1.4533332999999999E-3</v>
-      </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="12">
-        <f t="shared" si="0"/>
-        <v>444.27082499999995</v>
-      </c>
-      <c r="O28" s="12">
-        <f t="shared" si="1"/>
-        <v>35.714285250000003</v>
+        <v>1.5066666666666599</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="9">
+        <f t="shared" si="0"/>
+        <v>609.86842105263145</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" si="1"/>
+        <v>24.999999999999975</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
@@ -8434,12 +8419,12 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>26</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="17"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="1">
         <v>78000</v>
       </c>
@@ -8447,22 +8432,22 @@
         <v>28</v>
       </c>
       <c r="J29" s="1">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K29" s="1">
-        <v>78000</v>
+        <v>78</v>
       </c>
       <c r="L29" s="1">
-        <v>1.6410257E-3</v>
-      </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="12">
-        <f t="shared" si="0"/>
-        <v>462.04165799999998</v>
-      </c>
-      <c r="O29" s="12">
-        <f t="shared" si="1"/>
-        <v>37.14285666</v>
+        <v>1.8076923076922999</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="9">
+        <f t="shared" si="0"/>
+        <v>634.26315789473676</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="1"/>
+        <v>25.999999999999972</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
@@ -8476,12 +8461,12 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>27</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="1">
         <v>81000</v>
       </c>
@@ -8489,22 +8474,22 @@
         <v>29</v>
       </c>
       <c r="J30" s="1">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="K30" s="1">
-        <v>81000</v>
+        <v>81</v>
       </c>
       <c r="L30" s="1">
-        <v>1.7037037E-3</v>
-      </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="12">
-        <f t="shared" si="0"/>
-        <v>479.81249099999997</v>
-      </c>
-      <c r="O30" s="12">
-        <f t="shared" si="1"/>
-        <v>38.571428070000003</v>
+        <v>3.5432098765432101</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="9">
+        <f t="shared" si="0"/>
+        <v>658.65789473684197</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="1"/>
+        <v>26.999999999999972</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
@@ -8515,15 +8500,15 @@
         <v>317811</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>28</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>3.5714286999999997E-2</v>
-      </c>
-      <c r="G31" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="14"/>
       <c r="H31" s="1">
         <v>84000</v>
       </c>
@@ -8531,22 +8516,22 @@
         <v>30</v>
       </c>
       <c r="J31" s="1">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="K31" s="1">
-        <v>84000</v>
+        <v>84</v>
       </c>
       <c r="L31" s="1">
-        <v>2.9642856999999999E-3</v>
-      </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="12">
-        <f t="shared" si="0"/>
-        <v>497.58332399999995</v>
-      </c>
-      <c r="O31" s="12">
-        <f t="shared" si="1"/>
-        <v>39.99999948</v>
+        <v>2.0238095238095202</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="9">
+        <f t="shared" si="0"/>
+        <v>683.05263157894728</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="1"/>
+        <v>27.999999999999972</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
@@ -8560,12 +8545,12 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>29</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="1">
         <v>87000</v>
       </c>
@@ -8573,22 +8558,22 @@
         <v>31</v>
       </c>
       <c r="J32" s="1">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="K32" s="1">
-        <v>87000</v>
+        <v>87</v>
       </c>
       <c r="L32" s="1">
-        <v>2.7586208000000001E-3</v>
-      </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="12">
-        <f t="shared" si="0"/>
-        <v>515.35415699999999</v>
-      </c>
-      <c r="O32" s="12">
-        <f t="shared" si="1"/>
-        <v>41.428570890000003</v>
+        <v>1.86206896551724</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" s="9">
+        <f t="shared" si="0"/>
+        <v>707.44736842105249</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="1"/>
+        <v>28.999999999999968</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
@@ -8602,12 +8587,12 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>30</v>
+        <v>0.03</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="1">
         <v>90000</v>
       </c>
@@ -8615,22 +8600,22 @@
         <v>32</v>
       </c>
       <c r="J33" s="1">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="K33" s="1">
-        <v>90000</v>
+        <v>90</v>
       </c>
       <c r="L33" s="1">
-        <v>2.3111111999999999E-3</v>
-      </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="12">
-        <f t="shared" si="0"/>
-        <v>533.12498999999991</v>
-      </c>
-      <c r="O33" s="12">
-        <f t="shared" si="1"/>
-        <v>42.8571423</v>
+        <v>3.1</v>
+      </c>
+      <c r="M33" s="15"/>
+      <c r="N33" s="9">
+        <f t="shared" si="0"/>
+        <v>731.8421052631578</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="1"/>
+        <v>29.999999999999968</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
@@ -8644,12 +8629,12 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>31</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="1">
         <v>93000</v>
       </c>
@@ -8657,22 +8642,22 @@
         <v>33</v>
       </c>
       <c r="J34" s="1">
-        <v>170</v>
+        <v>458</v>
       </c>
       <c r="K34" s="1">
-        <v>93000</v>
+        <v>93</v>
       </c>
       <c r="L34" s="1">
-        <v>1.8279570000000001E-3</v>
-      </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="12">
-        <f t="shared" si="0"/>
-        <v>550.89582299999995</v>
-      </c>
-      <c r="O34" s="12">
-        <f t="shared" si="1"/>
-        <v>44.285713710000003</v>
+        <v>4.9247311827956901</v>
+      </c>
+      <c r="M34" s="15"/>
+      <c r="N34" s="9">
+        <f t="shared" si="0"/>
+        <v>756.23684210526301</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="1"/>
+        <v>30.999999999999968</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
@@ -8686,12 +8671,12 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>32</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="1">
         <v>96000</v>
       </c>
@@ -8699,22 +8684,22 @@
         <v>34</v>
       </c>
       <c r="J35" s="1">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="K35" s="1">
-        <v>96000</v>
+        <v>96</v>
       </c>
       <c r="L35" s="1">
-        <v>1.8854167E-3</v>
-      </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="12">
-        <f t="shared" si="0"/>
-        <v>568.66665599999999</v>
-      </c>
-      <c r="O35" s="12">
-        <f t="shared" si="1"/>
-        <v>45.71428512</v>
+        <v>2.1145833333333299</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" s="9">
+        <f t="shared" si="0"/>
+        <v>780.63157894736833</v>
+      </c>
+      <c r="O35" s="9">
+        <f t="shared" si="1"/>
+        <v>31.999999999999964</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
@@ -8728,12 +8713,12 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>33</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="1">
         <v>99000</v>
       </c>
@@ -8741,22 +8726,22 @@
         <v>35</v>
       </c>
       <c r="J36" s="1">
-        <v>478</v>
+        <v>237</v>
       </c>
       <c r="K36" s="1">
-        <v>99000</v>
+        <v>99</v>
       </c>
       <c r="L36" s="1">
-        <v>4.8282825999999999E-3</v>
-      </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="12">
-        <f t="shared" si="0"/>
-        <v>586.43748899999991</v>
-      </c>
-      <c r="O36" s="12">
-        <f t="shared" si="1"/>
-        <v>47.142856530000003</v>
+        <v>2.39393939393939</v>
+      </c>
+      <c r="M36" s="15"/>
+      <c r="N36" s="9">
+        <f t="shared" si="0"/>
+        <v>805.02631578947353</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" si="1"/>
+        <v>32.999999999999964</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
@@ -8770,12 +8755,12 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>34</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="17"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="1">
         <v>102000</v>
       </c>
@@ -8783,22 +8768,22 @@
         <v>36</v>
       </c>
       <c r="J37" s="1">
-        <v>523</v>
+        <v>398</v>
       </c>
       <c r="K37" s="1">
-        <v>102000</v>
+        <v>102</v>
       </c>
       <c r="L37" s="1">
-        <v>5.1274509999999999E-3</v>
-      </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="12">
-        <f t="shared" si="0"/>
-        <v>604.20832199999995</v>
-      </c>
-      <c r="O37" s="12">
-        <f t="shared" si="1"/>
-        <v>48.57142794</v>
+        <v>3.9019607843137201</v>
+      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" s="9">
+        <f t="shared" si="0"/>
+        <v>829.42105263157873</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="1"/>
+        <v>33.999999999999964</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
@@ -8809,15 +8794,15 @@
         <v>9227465</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="17"/>
+        <v>28.571428571428498</v>
+      </c>
+      <c r="G38" s="14"/>
       <c r="H38" s="1">
         <v>105000</v>
       </c>
@@ -8825,22 +8810,22 @@
         <v>37</v>
       </c>
       <c r="J38" s="1">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="K38" s="1">
-        <v>105000</v>
+        <v>105</v>
       </c>
       <c r="L38" s="1">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="12">
-        <f t="shared" si="0"/>
-        <v>621.97915499999999</v>
-      </c>
-      <c r="O38" s="12">
-        <f t="shared" si="1"/>
-        <v>49.999999350000003</v>
+        <v>3.9904761904761901</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" s="9">
+        <f t="shared" si="0"/>
+        <v>853.81578947368405</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="1"/>
+        <v>34.999999999999964</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
@@ -8854,12 +8839,12 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>36</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="17"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="1">
         <v>108000</v>
       </c>
@@ -8867,22 +8852,22 @@
         <v>38</v>
       </c>
       <c r="J39" s="1">
-        <v>455</v>
+        <v>362</v>
       </c>
       <c r="K39" s="1">
-        <v>108000</v>
+        <v>108</v>
       </c>
       <c r="L39" s="1">
-        <v>4.2129630000000001E-3</v>
-      </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="12">
-        <f t="shared" si="0"/>
-        <v>639.74998799999992</v>
-      </c>
-      <c r="O39" s="12">
-        <f t="shared" si="1"/>
-        <v>51.428570759999999</v>
+        <v>3.3518518518518499</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="N39" s="9">
+        <f t="shared" si="0"/>
+        <v>878.21052631578925</v>
+      </c>
+      <c r="O39" s="9">
+        <f t="shared" si="1"/>
+        <v>35.999999999999964</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
@@ -8896,12 +8881,12 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>37</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="17"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="1">
         <v>111000</v>
       </c>
@@ -8909,22 +8894,22 @@
         <v>39</v>
       </c>
       <c r="J40" s="1">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="K40" s="1">
-        <v>111000</v>
+        <v>111</v>
       </c>
       <c r="L40" s="1">
-        <v>4.009009E-3</v>
-      </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="12">
-        <f t="shared" si="0"/>
-        <v>657.52082099999996</v>
-      </c>
-      <c r="O40" s="12">
-        <f t="shared" si="1"/>
-        <v>52.857142170000003</v>
+        <v>4.2702702702702702</v>
+      </c>
+      <c r="M40" s="15"/>
+      <c r="N40" s="9">
+        <f t="shared" si="0"/>
+        <v>902.60526315789457</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" si="1"/>
+        <v>36.999999999999964</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
@@ -8938,12 +8923,12 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>38</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41" s="17"/>
+      <c r="G41" s="14"/>
       <c r="H41" s="1">
         <v>114000</v>
       </c>
@@ -8951,22 +8936,22 @@
         <v>40</v>
       </c>
       <c r="J41" s="1">
-        <v>481</v>
+        <v>927</v>
       </c>
       <c r="K41" s="1">
-        <v>114000</v>
+        <v>114</v>
       </c>
       <c r="L41" s="1">
-        <v>4.2192983000000003E-3</v>
-      </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="12">
-        <f t="shared" si="0"/>
-        <v>675.29165399999999</v>
-      </c>
-      <c r="O41" s="12">
-        <f t="shared" si="1"/>
-        <v>54.285713579999999</v>
+        <v>8.1315789473684195</v>
+      </c>
+      <c r="M41" s="15"/>
+      <c r="N41" s="9">
+        <f t="shared" si="0"/>
+        <v>926.99999999999977</v>
+      </c>
+      <c r="O41" s="9">
+        <f t="shared" si="1"/>
+        <v>37.999999999999957</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
@@ -8980,12 +8965,12 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>39</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="14"/>
       <c r="H42" s="1">
         <v>117000</v>
       </c>
@@ -8993,22 +8978,22 @@
         <v>41</v>
       </c>
       <c r="J42" s="1">
-        <v>421</v>
+        <v>516</v>
       </c>
       <c r="K42" s="1">
-        <v>117000</v>
+        <v>117</v>
       </c>
       <c r="L42" s="1">
-        <v>3.5982904999999998E-3</v>
-      </c>
-      <c r="M42" s="18"/>
-      <c r="N42" s="12">
-        <f t="shared" si="0"/>
-        <v>693.06248699999992</v>
-      </c>
-      <c r="O42" s="12">
-        <f t="shared" si="1"/>
-        <v>55.714284990000003</v>
+        <v>4.4102564102564097</v>
+      </c>
+      <c r="M42" s="15"/>
+      <c r="N42" s="9">
+        <f t="shared" si="0"/>
+        <v>951.39473684210509</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="1"/>
+        <v>38.999999999999957</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
@@ -9022,12 +9007,12 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>40</v>
+        <v>0.04</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
-      <c r="G43" s="17"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="1">
         <v>120000</v>
       </c>
@@ -9035,22 +9020,22 @@
         <v>42</v>
       </c>
       <c r="J43" s="1">
-        <v>643</v>
+        <v>705</v>
       </c>
       <c r="K43" s="1">
-        <v>120000</v>
+        <v>120</v>
       </c>
       <c r="L43" s="1">
-        <v>5.3583331999999999E-3</v>
-      </c>
-      <c r="M43" s="18"/>
-      <c r="N43" s="12">
-        <f t="shared" si="0"/>
-        <v>710.83331999999996</v>
-      </c>
-      <c r="O43" s="12">
-        <f t="shared" si="1"/>
-        <v>57.142856399999999</v>
+        <v>5.875</v>
+      </c>
+      <c r="M43" s="15"/>
+      <c r="N43" s="9">
+        <f t="shared" si="0"/>
+        <v>975.78947368421029</v>
+      </c>
+      <c r="O43" s="9">
+        <f t="shared" si="1"/>
+        <v>39.999999999999957</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -9064,12 +9049,12 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>41</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
-      <c r="G44" s="17"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="1">
         <v>123000</v>
       </c>
@@ -9077,22 +9062,22 @@
         <v>43</v>
       </c>
       <c r="J44" s="1">
-        <v>590</v>
+        <v>736</v>
       </c>
       <c r="K44" s="1">
-        <v>123000</v>
+        <v>123</v>
       </c>
       <c r="L44" s="1">
-        <v>4.796748E-3</v>
-      </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="12">
-        <f t="shared" si="0"/>
-        <v>728.604153</v>
-      </c>
-      <c r="O44" s="12">
-        <f t="shared" si="1"/>
-        <v>58.571427810000003</v>
+        <v>5.9837398373983701</v>
+      </c>
+      <c r="M44" s="15"/>
+      <c r="N44" s="9">
+        <f t="shared" si="0"/>
+        <v>1000.1842105263156</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="1"/>
+        <v>40.999999999999957</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
@@ -9106,12 +9091,12 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>42</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
-      <c r="G45" s="17"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="1">
         <v>126000</v>
       </c>
@@ -9119,22 +9104,22 @@
         <v>44</v>
       </c>
       <c r="J45" s="1">
-        <v>688</v>
+        <v>493</v>
       </c>
       <c r="K45" s="1">
-        <v>126000</v>
+        <v>126</v>
       </c>
       <c r="L45" s="1">
-        <v>5.4603172000000002E-3</v>
-      </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="12">
-        <f t="shared" si="0"/>
-        <v>746.37498599999992</v>
-      </c>
-      <c r="O45" s="12">
-        <f t="shared" si="1"/>
-        <v>59.999999219999999</v>
+        <v>3.9126984126984099</v>
+      </c>
+      <c r="M45" s="15"/>
+      <c r="N45" s="9">
+        <f t="shared" si="0"/>
+        <v>1024.5789473684208</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="1"/>
+        <v>41.999999999999957</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
@@ -9148,12 +9133,12 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>43</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
-      <c r="G46" s="17"/>
+      <c r="G46" s="14"/>
       <c r="H46" s="1">
         <v>129000</v>
       </c>
@@ -9161,22 +9146,22 @@
         <v>45</v>
       </c>
       <c r="J46" s="1">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="K46" s="1">
-        <v>129000</v>
+        <v>129</v>
       </c>
       <c r="L46" s="1">
-        <v>4.6511629999999998E-3</v>
-      </c>
-      <c r="M46" s="18"/>
-      <c r="N46" s="12">
-        <f t="shared" si="0"/>
-        <v>764.14581899999996</v>
-      </c>
-      <c r="O46" s="12">
-        <f t="shared" si="1"/>
-        <v>61.428570630000003</v>
+        <v>4.4806201550387597</v>
+      </c>
+      <c r="M46" s="15"/>
+      <c r="N46" s="9">
+        <f t="shared" si="0"/>
+        <v>1048.973684210526</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="1"/>
+        <v>42.999999999999957</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
@@ -9190,12 +9175,12 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>44</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
-      <c r="G47" s="17"/>
+      <c r="G47" s="14"/>
       <c r="H47" s="1">
         <v>132000</v>
       </c>
@@ -9203,22 +9188,22 @@
         <v>46</v>
       </c>
       <c r="J47" s="1">
-        <v>671</v>
+        <v>862</v>
       </c>
       <c r="K47" s="1">
-        <v>132000</v>
+        <v>132</v>
       </c>
       <c r="L47" s="1">
-        <v>5.0833331999999998E-3</v>
-      </c>
-      <c r="M47" s="18"/>
-      <c r="N47" s="12">
-        <f t="shared" si="0"/>
-        <v>781.916652</v>
-      </c>
-      <c r="O47" s="12">
-        <f t="shared" si="1"/>
-        <v>62.857142039999999</v>
+        <v>6.5303030303030303</v>
+      </c>
+      <c r="M47" s="15"/>
+      <c r="N47" s="9">
+        <f t="shared" si="0"/>
+        <v>1073.3684210526314</v>
+      </c>
+      <c r="O47" s="9">
+        <f t="shared" si="1"/>
+        <v>43.99999999999995</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
@@ -9232,12 +9217,12 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>45</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
-      <c r="G48" s="17"/>
+      <c r="G48" s="14"/>
       <c r="H48" s="1">
         <v>135000</v>
       </c>
@@ -9245,22 +9230,22 @@
         <v>47</v>
       </c>
       <c r="J48" s="1">
-        <v>759</v>
+        <v>665</v>
       </c>
       <c r="K48" s="1">
-        <v>135000</v>
+        <v>135</v>
       </c>
       <c r="L48" s="1">
-        <v>5.6222219999999996E-3</v>
-      </c>
-      <c r="M48" s="18"/>
-      <c r="N48" s="12">
-        <f t="shared" si="0"/>
-        <v>799.68748499999992</v>
-      </c>
-      <c r="O48" s="12">
-        <f t="shared" si="1"/>
-        <v>64.285713450000003</v>
+        <v>4.9259259259259203</v>
+      </c>
+      <c r="M48" s="15"/>
+      <c r="N48" s="9">
+        <f t="shared" si="0"/>
+        <v>1097.7631578947367</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" si="1"/>
+        <v>44.99999999999995</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
@@ -9274,12 +9259,12 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>46</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="1">
         <v>138000</v>
       </c>
@@ -9287,22 +9272,22 @@
         <v>48</v>
       </c>
       <c r="J49" s="1">
-        <v>661</v>
+        <v>874</v>
       </c>
       <c r="K49" s="1">
-        <v>138000</v>
+        <v>138</v>
       </c>
       <c r="L49" s="1">
-        <v>4.789855E-3</v>
-      </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="12">
-        <f t="shared" si="0"/>
-        <v>817.45831799999996</v>
-      </c>
-      <c r="O49" s="12">
-        <f t="shared" si="1"/>
-        <v>65.714284860000006</v>
+        <v>6.3333333333333304</v>
+      </c>
+      <c r="M49" s="15"/>
+      <c r="N49" s="9">
+        <f t="shared" si="0"/>
+        <v>1122.1578947368419</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="1"/>
+        <v>45.99999999999995</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
@@ -9316,12 +9301,12 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>47</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="G50" s="17"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="1">
         <v>141000</v>
       </c>
@@ -9329,22 +9314,22 @@
         <v>49</v>
       </c>
       <c r="J50" s="1">
-        <v>719</v>
+        <v>1052</v>
       </c>
       <c r="K50" s="1">
-        <v>141000</v>
+        <v>141</v>
       </c>
       <c r="L50" s="1">
-        <v>5.0992909999999997E-3</v>
-      </c>
-      <c r="M50" s="18"/>
-      <c r="N50" s="12">
-        <f t="shared" si="0"/>
-        <v>835.229151</v>
-      </c>
-      <c r="O50" s="12">
-        <f t="shared" si="1"/>
-        <v>67.142856269999996</v>
+        <v>7.4609929078014101</v>
+      </c>
+      <c r="M50" s="15"/>
+      <c r="N50" s="9">
+        <f t="shared" si="0"/>
+        <v>1146.5526315789471</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="1"/>
+        <v>46.99999999999995</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
@@ -9358,12 +9343,12 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>48</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="1">
         <v>144000</v>
       </c>
@@ -9371,22 +9356,22 @@
         <v>50</v>
       </c>
       <c r="J51" s="1">
-        <v>853</v>
+        <v>870</v>
       </c>
       <c r="K51" s="1">
-        <v>144000</v>
+        <v>144</v>
       </c>
       <c r="L51" s="1">
-        <v>5.9236109999999996E-3</v>
-      </c>
-      <c r="M51" s="18"/>
-      <c r="N51" s="12">
-        <f t="shared" si="0"/>
-        <v>852.99998399999993</v>
-      </c>
-      <c r="O51" s="12">
-        <f t="shared" si="1"/>
-        <v>68.571427679999999</v>
+        <v>6.0416666666666599</v>
+      </c>
+      <c r="M51" s="15"/>
+      <c r="N51" s="9">
+        <f t="shared" si="0"/>
+        <v>1170.9473684210525</v>
+      </c>
+      <c r="O51" s="9">
+        <f t="shared" si="1"/>
+        <v>47.99999999999995</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
@@ -9400,12 +9385,12 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>49</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="14"/>
       <c r="H52" s="1">
         <v>147000</v>
       </c>
@@ -9413,22 +9398,22 @@
         <v>51</v>
       </c>
       <c r="J52" s="1">
-        <v>734</v>
+        <v>1052</v>
       </c>
       <c r="K52" s="1">
-        <v>147000</v>
+        <v>147</v>
       </c>
       <c r="L52" s="1">
-        <v>4.9931975000000002E-3</v>
-      </c>
-      <c r="M52" s="18"/>
-      <c r="N52" s="12">
-        <f t="shared" si="0"/>
-        <v>870.77081699999997</v>
-      </c>
-      <c r="O52" s="12">
-        <f t="shared" si="1"/>
-        <v>69.999999090000003</v>
+        <v>7.15646258503401</v>
+      </c>
+      <c r="M52" s="15"/>
+      <c r="N52" s="9">
+        <f t="shared" si="0"/>
+        <v>1195.3421052631577</v>
+      </c>
+      <c r="O52" s="9">
+        <f t="shared" si="1"/>
+        <v>48.99999999999995</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
@@ -9442,12 +9427,12 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="14"/>
       <c r="H53" s="1">
         <v>150000</v>
       </c>
@@ -9455,22 +9440,22 @@
         <v>52</v>
       </c>
       <c r="J53" s="1">
-        <v>887</v>
+        <v>757</v>
       </c>
       <c r="K53" s="1">
-        <v>150000</v>
+        <v>150</v>
       </c>
       <c r="L53" s="1">
-        <v>5.9133335000000004E-3</v>
-      </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="12">
-        <f t="shared" si="0"/>
-        <v>888.54164999999989</v>
-      </c>
-      <c r="O53" s="12">
-        <f t="shared" si="1"/>
-        <v>71.428570500000006</v>
+        <v>5.0466666666666598</v>
+      </c>
+      <c r="M53" s="15"/>
+      <c r="N53" s="9">
+        <f t="shared" si="0"/>
+        <v>1219.7368421052629</v>
+      </c>
+      <c r="O53" s="9">
+        <f t="shared" si="1"/>
+        <v>49.99999999999995</v>
       </c>
     </row>
   </sheetData>
